--- a/Invitados de boda ultimo.xlsx
+++ b/Invitados de boda ultimo.xlsx
@@ -15,7 +15,7 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="43" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -578,9 +578,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,6 +585,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jorge Girón" refreshedDate="43132.580135300923" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="94">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jorge Girón" refreshedDate="43132.671151504626" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="94">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:F96" sheet="LISTA TOTAL"/>
   </cacheSource>
@@ -678,14 +678,6 @@
     <m/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="Yorlenis Sanjur"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
     <x v="0"/>
     <x v="0"/>
     <s v="Familia Quiros"/>
@@ -718,6 +710,374 @@
     <m/>
   </r>
   <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Gustavo Rueda"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Javier Llinares"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Amarilis Arrollo"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Aylin Zerna"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fernando Castillo"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Janeth Rojas"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Lilia Osorio"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Yirelki Jimenez"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Erick Gonzalez"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Shamir Parquer"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Familia Cedeño Alvarado"/>
+    <n v="3"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Familia Leiva Cedeño"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Tío Carlos y Primo Carlos Daniel"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Tío Manuel y Prima Zulay"/>
+    <n v="2"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Abuelitos Custodio Cedeño"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Tío David y Esposa"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Familia Castillo Custodio"/>
+    <n v="5"/>
+    <n v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Diana Colona"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Itzel Colona"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Victor Colona"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Argelis Colona"/>
+    <n v="3"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Victor Colona (tio)"/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Familia Girón Mendoza (tío Julio)"/>
+    <n v="5"/>
+    <n v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Familia Girón Colona(papás)"/>
+    <n v="5"/>
+    <n v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Familia Colona Rodriguez"/>
+    <n v="6"/>
+    <n v="6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Clark"/>
+    <n v="3"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Lourdes y Obed"/>
+    <n v="2"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Carolina Ma Li"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Daniel Tejada"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Juan Carlos Soto"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Sra. Delma de Sween"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Sra. Elba Atencio"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Sra. Ivonne Joseph"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Nuñez"/>
+    <n v="3"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Chavez"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Chavez Cornejo"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Gonzalez Molina"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Otero "/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Salazar"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Lozano "/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Martínez"/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Sarmiento Gonzalez"/>
+    <n v="3"/>
+    <n v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Gonzalez Ulate"/>
+    <n v="4"/>
+    <n v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Montes Sarmiento "/>
+    <n v="4"/>
+    <n v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Ruiz Cruz"/>
+    <n v="5"/>
+    <n v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Familia Trombeta"/>
+    <n v="6"/>
+    <n v="6"/>
+    <m/>
+  </r>
+  <r>
     <x v="1"/>
     <x v="0"/>
     <s v="Elvis Cordoba y Anair Joao"/>
@@ -750,81 +1110,25 @@
     <m/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Gustavo Rueda"/>
-    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Yorlenis Sanjur"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Familia Galeano"/>
+    <n v="3"/>
     <n v="0"/>
     <m/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Amarilis Arrollo"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Aylin Zerna"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Fernando Castillo"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Janeth Rojas"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Lilia Osorio"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yirelki Jimenez"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Erick Gonzalez"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Shamir Parquer"/>
-    <n v="2"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Javier Llinares"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Dery"/>
     <n v="2"/>
     <n v="0"/>
     <m/>
@@ -835,22 +1139,6 @@
     <s v="Kevin Sambulá"/>
     <n v="2"/>
     <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Abuelitos Custodio Cedeño"/>
-    <n v="2"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Tío David y Esposa"/>
-    <n v="2"/>
-    <n v="2"/>
     <m/>
   </r>
   <r>
@@ -878,14 +1166,6 @@
     <m/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Familia Castillo Custodio"/>
-    <n v="5"/>
-    <n v="5"/>
-    <m/>
-  </r>
-  <r>
     <x v="1"/>
     <x v="2"/>
     <s v="Raul Custodio"/>
@@ -894,70 +1174,6 @@
     <m/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Familia Cedeño Alvarado"/>
-    <n v="3"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Familia Leiva Cedeño"/>
-    <n v="2"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Tío Carlos y Primo Carlos Daniel"/>
-    <n v="2"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Tío Manuel y Prima Zulay"/>
-    <n v="2"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Familia Galeano"/>
-    <n v="3"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Dery"/>
-    <n v="2"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Diana Colona"/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Itzel Colona"/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
     <x v="1"/>
     <x v="3"/>
     <s v="Familia Adang Girón"/>
@@ -966,14 +1182,6 @@
     <m/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Victor Colona"/>
-    <n v="2"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
     <x v="1"/>
     <x v="3"/>
     <s v="Familia Girón Campos (tío Javier)"/>
@@ -995,30 +1203,6 @@
     <s v="Familia Girón Montes (tio tedy)"/>
     <n v="2"/>
     <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Familia Montenegro Girón"/>
-    <n v="2"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Argelis Colona"/>
-    <n v="3"/>
-    <n v="3"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Victor Colona (tio)"/>
-    <n v="3"/>
-    <n v="3"/>
     <m/>
   </r>
   <r>
@@ -1054,22 +1238,6 @@
     <m/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Familia Girón Mendoza (tío Julio)"/>
-    <n v="5"/>
-    <n v="5"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Familia Girón Colona(papás)"/>
-    <n v="5"/>
-    <n v="5"/>
-    <m/>
-  </r>
-  <r>
     <x v="1"/>
     <x v="3"/>
     <s v="Familia Escala Girón (tía Nuria)"/>
@@ -1078,211 +1246,19 @@
     <m/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Familia Colona Rodriguez"/>
-    <n v="6"/>
-    <n v="6"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Lourdes y Obed"/>
-    <n v="2"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Carolina Ma Li"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Daniel Tejada"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Juan Carlos Soto"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Sra. Delma de Sween"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Sra. Elba Atencio"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Sra. Ivonne Joseph"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Nuñez"/>
-    <n v="3"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Chavez"/>
-    <n v="2"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Chavez Cornejo"/>
-    <n v="2"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Gonzalez Molina"/>
-    <n v="2"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Otero "/>
-    <n v="2"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Salazar"/>
-    <n v="2"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Familia Petana"/>
-    <n v="2"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Familia Robles"/>
-    <n v="2"/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Lozano "/>
-    <n v="3"/>
-    <n v="3"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Martínez"/>
-    <n v="3"/>
-    <n v="3"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Sarmiento Gonzalez"/>
-    <n v="3"/>
-    <n v="3"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Gonzalez Ulate"/>
-    <n v="4"/>
-    <n v="4"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Montes Sarmiento "/>
-    <n v="4"/>
-    <n v="4"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Ruiz Cruz"/>
-    <n v="5"/>
-    <n v="5"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Trombeta"/>
-    <n v="6"/>
-    <n v="6"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Clark"/>
-    <n v="3"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
     <x v="1"/>
     <x v="4"/>
     <s v="Familia Gonzalez de Leon "/>
     <n v="4"/>
-    <n v="0"/>
+    <n v="4"/>
     <m/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <s v="Alimariel Fuentes"/>
-    <n v="3"/>
-    <n v="0"/>
+    <n v="2"/>
+    <n v="2"/>
     <m/>
   </r>
   <r>
@@ -1360,17 +1336,9 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <s v="José Arturo Bonilla"/>
-    <n v="1"/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
     <s v="Juan Pablo Doble"/>
     <n v="1"/>
-    <n v="0"/>
+    <n v="1"/>
     <m/>
   </r>
   <r>
@@ -1395,13 +1363,45 @@
     <s v="Sra. Rufina"/>
     <n v="1"/>
     <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="José Arturo Bonilla"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Familia Petana"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Familia Robles"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Familia Montenegro Girón"/>
+    <n v="2"/>
+    <n v="2"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Invitaciones de la boda" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Invitaciones de la boda" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G6:I21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1781,14 +1781,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="16" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -1808,14 +1808,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1">
@@ -1846,7 +1846,7 @@
       <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
@@ -1855,7 +1855,7 @@
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>1</v>
       </c>
       <c r="G3" s="13"/>
@@ -1864,7 +1864,7 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1873,16 +1873,16 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1891,7 +1891,7 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1908,7 +1908,7 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -1919,7 +1919,7 @@
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1928,7 +1928,7 @@
       <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>2</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -1945,7 +1945,7 @@
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1954,7 +1954,7 @@
       <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>2</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -1964,14 +1964,14 @@
         <v>122</v>
       </c>
       <c r="I8" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
@@ -1980,7 +1980,7 @@
       <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>3</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -1997,7 +1997,7 @@
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2006,7 +2006,7 @@
       <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>3</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -2023,7 +2023,7 @@
       <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
@@ -2032,7 +2032,7 @@
       <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>0</v>
       </c>
       <c r="G11" s="12" t="s">
@@ -2049,7 +2049,7 @@
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
@@ -2058,7 +2058,7 @@
       <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>0</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -2068,14 +2068,14 @@
         <v>24</v>
       </c>
       <c r="I12" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
@@ -2084,7 +2084,7 @@
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -2101,7 +2101,7 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
@@ -2110,24 +2110,24 @@
       <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>98</v>
       </c>
       <c r="H14" s="10">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" s="10">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
@@ -2136,7 +2136,7 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
@@ -2153,7 +2153,7 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
@@ -2162,7 +2162,7 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -2179,7 +2179,7 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
@@ -2188,7 +2188,7 @@
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -2205,7 +2205,7 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
@@ -2214,24 +2214,24 @@
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="10">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
@@ -2240,7 +2240,7 @@
       <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -2257,7 +2257,7 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
@@ -2266,7 +2266,7 @@
       <c r="D20" s="6">
         <v>2</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>2</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -2283,7 +2283,7 @@
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
@@ -2292,24 +2292,24 @@
       <c r="D21" s="6">
         <v>3</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>0</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="10">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I21" s="10">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
@@ -2318,7 +2318,7 @@
       <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
@@ -2335,7 +2335,7 @@
       <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
@@ -2352,7 +2352,7 @@
       <c r="D24" s="6">
         <v>2</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
@@ -2369,7 +2369,7 @@
       <c r="D25" s="6">
         <v>2</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
@@ -2386,7 +2386,7 @@
       <c r="D26" s="6">
         <v>2</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
@@ -2403,7 +2403,7 @@
       <c r="D27" s="6">
         <v>5</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <v>5</v>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
@@ -2420,7 +2420,7 @@
       <c r="D28" s="6">
         <v>0</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
@@ -2437,7 +2437,7 @@
       <c r="D29" s="6">
         <v>0</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="s">
@@ -2454,7 +2454,7 @@
       <c r="D30" s="6">
         <v>2</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
@@ -2471,7 +2471,7 @@
       <c r="D31" s="6">
         <v>3</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C32" t="s">
@@ -2488,7 +2488,7 @@
       <c r="D32" s="6">
         <v>3</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="14">
         <v>3</v>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C33" t="s">
@@ -2505,7 +2505,7 @@
       <c r="D33" s="6">
         <v>5</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <v>5</v>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
@@ -2522,7 +2522,7 @@
       <c r="D34" s="6">
         <v>5</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <v>5</v>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
@@ -2539,7 +2539,7 @@
       <c r="D35" s="6">
         <v>6</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>6</v>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C36" t="s">
@@ -2556,7 +2556,7 @@
       <c r="D36" s="6">
         <v>3</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C37" t="s">
@@ -2573,7 +2573,7 @@
       <c r="D37" s="6">
         <v>2</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C38" t="s">
@@ -2590,7 +2590,7 @@
       <c r="D38" s="6">
         <v>1</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C39" t="s">
@@ -2607,7 +2607,7 @@
       <c r="D39" s="6">
         <v>1</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
@@ -2624,7 +2624,7 @@
       <c r="D40" s="6">
         <v>1</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C41" t="s">
@@ -2641,7 +2641,7 @@
       <c r="D41" s="6">
         <v>1</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C42" t="s">
@@ -2658,7 +2658,7 @@
       <c r="D42" s="6">
         <v>1</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       <c r="A43" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C43" t="s">
@@ -2675,7 +2675,7 @@
       <c r="D43" s="6">
         <v>1</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C44" t="s">
@@ -2692,7 +2692,7 @@
       <c r="D44" s="6">
         <v>3</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       <c r="A45" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
@@ -2709,7 +2709,7 @@
       <c r="D45" s="6">
         <v>2</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C46" t="s">
@@ -2726,7 +2726,7 @@
       <c r="D46" s="6">
         <v>2</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       <c r="A47" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C47" t="s">
@@ -2743,7 +2743,7 @@
       <c r="D47" s="6">
         <v>2</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       <c r="A48" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C48" t="s">
@@ -2760,7 +2760,7 @@
       <c r="D48" s="6">
         <v>2</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       <c r="A49" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C49" t="s">
@@ -2777,7 +2777,7 @@
       <c r="D49" s="6">
         <v>2</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
       <c r="A50" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C50" t="s">
@@ -2794,7 +2794,7 @@
       <c r="D50" s="6">
         <v>3</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="14">
         <v>3</v>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       <c r="A51" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C51" t="s">
@@ -2811,7 +2811,7 @@
       <c r="D51" s="6">
         <v>3</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="14">
         <v>3</v>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       <c r="A52" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C52" t="s">
@@ -2828,7 +2828,7 @@
       <c r="D52" s="6">
         <v>3</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="14">
         <v>3</v>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       <c r="A53" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C53" t="s">
@@ -2845,7 +2845,7 @@
       <c r="D53" s="6">
         <v>4</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="14">
         <v>4</v>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       <c r="A54" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C54" t="s">
@@ -2862,7 +2862,7 @@
       <c r="D54" s="6">
         <v>4</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="14">
         <v>4</v>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
       <c r="A55" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C55" t="s">
@@ -2879,7 +2879,7 @@
       <c r="D55" s="6">
         <v>5</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="14">
         <v>5</v>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       <c r="A56" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C56" t="s">
@@ -2896,7 +2896,7 @@
       <c r="D56" s="6">
         <v>6</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="14">
         <v>6</v>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       <c r="A57" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -2913,7 +2913,7 @@
       <c r="D57" s="8">
         <v>2</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       <c r="A58" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C58" t="s">
@@ -2930,7 +2930,7 @@
       <c r="D58" s="6">
         <v>2</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       <c r="A59" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -2947,7 +2947,7 @@
       <c r="D59" s="7">
         <v>2</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       <c r="A60" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -2964,7 +2964,7 @@
       <c r="D60" s="7">
         <v>4</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       <c r="A61" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C61" t="s">
@@ -2981,7 +2981,7 @@
       <c r="D61" s="6">
         <v>1</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="A62" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
@@ -2998,7 +2998,7 @@
       <c r="D62" s="6">
         <v>3</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       <c r="A63" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C63" t="s">
@@ -3015,7 +3015,7 @@
       <c r="D63" s="6">
         <v>2</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       <c r="A64" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
@@ -3032,7 +3032,7 @@
       <c r="D64" s="6">
         <v>2</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="14">
         <v>1</v>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       <c r="A65" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C65" t="s">
@@ -3049,7 +3049,7 @@
       <c r="D65" s="6">
         <v>2</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="14">
         <v>2</v>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       <c r="A66" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C66" t="s">
@@ -3066,7 +3066,7 @@
       <c r="D66" s="6">
         <v>2</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="14">
         <v>2</v>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       <c r="A67" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C67" t="s">
@@ -3083,7 +3083,7 @@
       <c r="D67" s="6">
         <v>4</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="14">
         <v>4</v>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       <c r="A68" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C68" t="s">
@@ -3100,7 +3100,7 @@
       <c r="D68" s="6">
         <v>5</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="14">
         <v>5</v>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       <c r="A69" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C69" t="s">
@@ -3117,7 +3117,7 @@
       <c r="D69" s="6">
         <v>0</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       <c r="A70" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C70" t="s">
@@ -3134,7 +3134,7 @@
       <c r="D70" s="6">
         <v>2</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="14">
         <v>2</v>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       <c r="A71" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C71" t="s">
@@ -3151,7 +3151,7 @@
       <c r="D71" s="6">
         <v>2</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="14">
         <v>2</v>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       <c r="A72" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C72" t="s">
@@ -3168,7 +3168,7 @@
       <c r="D72" s="6">
         <v>2</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="14">
         <v>2</v>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       <c r="A73" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C73" t="s">
@@ -3185,7 +3185,7 @@
       <c r="D73" s="6">
         <v>3</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="14">
         <v>3</v>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       <c r="A74" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C74" t="s">
@@ -3202,7 +3202,7 @@
       <c r="D74" s="6">
         <v>3</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="14">
         <v>3</v>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       <c r="A75" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C75" t="s">
@@ -3219,7 +3219,7 @@
       <c r="D75" s="6">
         <v>4</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="14">
         <v>4</v>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       <c r="A76" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C76" t="s">
@@ -3236,7 +3236,7 @@
       <c r="D76" s="6">
         <v>4</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="14">
         <v>4</v>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       <c r="A77" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C77" t="s">
@@ -3253,7 +3253,7 @@
       <c r="D77" s="6">
         <v>5</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="14">
         <v>5</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       <c r="A78" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C78" t="s">
@@ -3270,15 +3270,15 @@
       <c r="D78" s="6">
         <v>4</v>
       </c>
-      <c r="E78" s="15">
-        <v>0</v>
+      <c r="E78" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>98</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -3287,7 +3287,7 @@
       <c r="D79" s="8">
         <v>2</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="14">
         <v>2</v>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       <c r="A80" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C80" t="s">
@@ -3304,7 +3304,7 @@
       <c r="D80" s="6">
         <v>3</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
       <c r="A81" t="s">
         <v>98</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C81" t="s">
@@ -3321,7 +3321,7 @@
       <c r="D81" s="6">
         <v>2</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       <c r="A82" t="s">
         <v>98</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C82" t="s">
@@ -3338,7 +3338,7 @@
       <c r="D82" s="6">
         <v>2</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="A83" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C83" t="s">
@@ -3355,7 +3355,7 @@
       <c r="D83" s="6">
         <v>2</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       <c r="A84" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C84" t="s">
@@ -3372,7 +3372,7 @@
       <c r="D84" s="6">
         <v>2</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       <c r="A85" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C85" t="s">
@@ -3389,7 +3389,7 @@
       <c r="D85" s="6">
         <v>2</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       <c r="A86" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C86" t="s">
@@ -3406,7 +3406,7 @@
       <c r="D86" s="6">
         <v>1</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       <c r="A87" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C87" t="s">
@@ -3423,7 +3423,7 @@
       <c r="D87" s="7">
         <v>1</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       <c r="A88" t="s">
         <v>98</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C88" t="s">
@@ -3440,7 +3440,7 @@
       <c r="D88" s="7">
         <v>1</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3448,7 +3448,7 @@
       <c r="A89" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C89" t="s">
@@ -3457,7 +3457,7 @@
       <c r="D89" s="6">
         <v>1</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="14">
         <v>1</v>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       <c r="A90" t="s">
         <v>98</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C90" t="s">
@@ -3474,7 +3474,7 @@
       <c r="D90" s="6">
         <v>1</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3482,7 +3482,7 @@
       <c r="A91" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C91" t="s">
@@ -3491,7 +3491,7 @@
       <c r="D91" s="6">
         <v>1</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       <c r="A92" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C92" t="s">
@@ -3508,7 +3508,7 @@
       <c r="D92" s="6">
         <v>1</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       <c r="A93" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C93" t="s">
@@ -3525,7 +3525,7 @@
       <c r="D93" s="6">
         <v>1</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="14">
         <v>1</v>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C94" t="s">
@@ -3542,7 +3542,7 @@
       <c r="D94" s="6">
         <v>2</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="14">
         <v>2</v>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C95" t="s">
@@ -3559,7 +3559,7 @@
       <c r="D95" s="6">
         <v>2</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E95" s="14">
         <v>2</v>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       <c r="A96" t="s">
         <v>74</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C96" t="s">
@@ -3576,7 +3576,7 @@
       <c r="D96" s="6">
         <v>2</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E96" s="14">
         <v>2</v>
       </c>
     </row>
@@ -3609,11 +3609,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">

--- a/Invitados de boda ultimo.xlsx
+++ b/Invitados de boda ultimo.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3990"/>
   </bookViews>
@@ -11,20 +11,17 @@
     <sheet name="Hoja1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'LISTA TOTAL'!$A$2:$F$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LISTA TOTAL'!$A$2:$F$96</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="45" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="138">
-  <si>
-    <t>LISTA DE INVITADOS A LA BODA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="138">
   <si>
     <t>Categoría</t>
   </si>
@@ -368,96 +365,76 @@
     <t>Suma de Confirmados</t>
   </si>
   <si>
-    <t>Mesa #1 
-Winterfell</t>
-  </si>
-  <si>
-    <t>Mesa #2 
-The Wall</t>
-  </si>
-  <si>
-    <t>Mesa #3 
-Pyke</t>
-  </si>
-  <si>
-    <t>Mesa #4 
-Harrenhal</t>
-  </si>
-  <si>
-    <t>Mesa #5 
-Riverrun</t>
-  </si>
-  <si>
-    <t>Mesa #6 
-Vale of Arryn</t>
-  </si>
-  <si>
-    <t>Mesa #7 
-Casterly Rock</t>
-  </si>
-  <si>
-    <t>Mesa #8 
-Dragonstone</t>
-  </si>
-  <si>
-    <t>Mesa #9 
-King's Landing</t>
-  </si>
-  <si>
-    <t>Mesa #10 
-Iron Islands</t>
-  </si>
-  <si>
-    <t>Mesa #11 
-Riverlands</t>
-  </si>
-  <si>
-    <t>Mesa #12 
-Eyrie</t>
-  </si>
-  <si>
-    <t>Mesa #13 
-Stormlands</t>
-  </si>
-  <si>
-    <t>Mesa #14 
-Dorne</t>
-  </si>
-  <si>
-    <t>Mesa #15 
-Castle Black</t>
-  </si>
-  <si>
-    <t>Mesa #16 
-The Reach</t>
-  </si>
-  <si>
-    <t>Mesa #17 
-Braavos</t>
-  </si>
-  <si>
-    <t>Mesa #18 
-Pentos</t>
-  </si>
-  <si>
-    <t>Mesa #19 
-Volantis</t>
-  </si>
-  <si>
-    <t>Mesa #20 
-Andalos</t>
-  </si>
-  <si>
-    <t>Mesa #21 
-King's Gate</t>
-  </si>
-  <si>
-    <t>Mesa #22 
-High Garden</t>
-  </si>
-  <si>
-    <t>Mesa #0
-winterfell</t>
+    <t>Mesa #0 winterfell</t>
+  </si>
+  <si>
+    <t>Mesa #5 Riverrun</t>
+  </si>
+  <si>
+    <t>Mesa #4 Harrenhal</t>
+  </si>
+  <si>
+    <t>Mesa #3 Pyke</t>
+  </si>
+  <si>
+    <t>Mesa #2 The Wall</t>
+  </si>
+  <si>
+    <t>Mesa #1 Winterfell</t>
+  </si>
+  <si>
+    <t>Mesa #6 Vale of Arryn</t>
+  </si>
+  <si>
+    <t>Mesa #7 Casterly Rock</t>
+  </si>
+  <si>
+    <t>Mesa #8 Dragonstone</t>
+  </si>
+  <si>
+    <t>Mesa #9 King's Landing</t>
+  </si>
+  <si>
+    <t>Mesa #10 Iron Islands</t>
+  </si>
+  <si>
+    <t>Mesa #11 Riverlands</t>
+  </si>
+  <si>
+    <t>Mesa #12 Eyrie</t>
+  </si>
+  <si>
+    <t>Mesa #13 Stormlands</t>
+  </si>
+  <si>
+    <t>Mesa #22 High Garden</t>
+  </si>
+  <si>
+    <t>Mesa #21 King's Gate</t>
+  </si>
+  <si>
+    <t>Mesa #20 Andalos</t>
+  </si>
+  <si>
+    <t>Mesa #19 Volantis</t>
+  </si>
+  <si>
+    <t>Mesa #18 Pentos</t>
+  </si>
+  <si>
+    <t>Mesa #17 Braavos</t>
+  </si>
+  <si>
+    <t>Mesa #16 The Reach</t>
+  </si>
+  <si>
+    <t>Mesa #15 Castle Black</t>
+  </si>
+  <si>
+    <t>Mesa #14 Dorne</t>
+  </si>
+  <si>
+    <t>LISTA DE TARJETAS DE LA BODA</t>
   </si>
 </sst>
 </file>
@@ -501,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -545,11 +522,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,25 +553,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jorge Girón" refreshedDate="43139.624953935185" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="94">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jorge Girón" refreshedDate="43140.668608101849" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="94">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:F96" sheet="LISTA TOTAL"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Estado" numFmtId="0">
-      <sharedItems count="3">
-        <s v="ENTREGADO"/>
-        <s v="HECHO"/>
-        <s v="Pendiente hacer"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Categoría" numFmtId="0">
       <sharedItems count="5">
-        <s v="Amistad Novia"/>
         <s v="Amistad Novio"/>
         <s v="Familia Novia"/>
         <s v="Familia Novio"/>
         <s v="Iglesia"/>
+        <s v="Amistad Novia"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Tarjetas" numFmtId="0">
@@ -609,779 +589,772 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="94">
   <r>
+    <s v="ENTREGADO"/>
     <x v="0"/>
+    <s v="Gustavo Rueda"/>
+    <m/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
     <x v="0"/>
-    <s v="Familia Ramos"/>
+    <s v="Javier Llinares"/>
     <m/>
     <n v="2"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="HECHO"/>
     <x v="1"/>
-    <s v="Gustavo Rueda"/>
-    <m/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Javier Llinares"/>
-    <m/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Familia Cedeño Alvarado"/>
+    <s v="Familia Galeano"/>
     <m/>
     <n v="3"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="HECHO"/>
+    <x v="1"/>
+    <s v="Kevin Sambulá"/>
+    <m/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
     <x v="2"/>
-    <s v="Familia Leiva Cedeño"/>
-    <m/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Tío Carlos y Primo Carlos Daniel"/>
-    <m/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Tío Manuel y Prima Zulay"/>
-    <m/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
     <s v="Diana Colona"/>
     <m/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="3"/>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
     <s v="Familia Adang Girón"/>
     <m/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="3"/>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
     <s v="Itzel Colona"/>
     <m/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Lourdes y Obed"/>
+    <m/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Cedeño Cussati"/>
+    <m/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Srta. Celideth Ramires"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Srta. Jidarky Arias"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Xiomara Dominguez"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="4"/>
+    <s v="Yorlenis Sanjur"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
     <x v="0"/>
+    <s v="Amarilis Arrollo"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Aylin Zerna"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Erick Gonzalez"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Fernando Castillo"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Lilia Osorio"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Yirelki Jimenez"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="3"/>
+    <s v="Angel Smith"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Carolina Ma Li"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Daniel Tejada"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="3"/>
+    <s v="Estefany Ruiz"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Freddy"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="José Arturo Bonilla"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Juan Carlos Soto"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="3"/>
+    <s v="Juan Pablo Doble"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="3"/>
+    <s v="Kevin Contreras"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="3"/>
+    <s v="Martin Ibarra"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Sra. Delma de Sween"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Sra. Elba Atencio"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Sra. Ivonne Joseph"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
     <x v="4"/>
-    <s v="Familia Clark"/>
+    <s v="Familia Castillo"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Quiros"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Ramos"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Jessica Dean"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Janeth Rojas"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Shamir Parquer"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="1"/>
+    <s v="Abuelitos Custodio Cedeño"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="1"/>
+    <s v="Abuelitos Sambula Aguilar"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="1"/>
+    <s v="Dery"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="1"/>
+    <s v="Neidy Sambulá"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="1"/>
+    <s v="Tío Carlos y Primo Carlos Daniel"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="1"/>
+    <s v="Tío David y Esposa"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Abuelitos Girón Bosquez"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="2"/>
+    <s v="Familia Girón Campos (tío Javier)"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="2"/>
+    <s v="Familia Girón Montes (tio tedy)"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Pendiente hacer"/>
+    <x v="2"/>
+    <s v="Familia Montenegro Girón"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Victor Colona"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Alimariel Fuentes"/>
+    <m/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="3"/>
+    <s v="Andy y Marlon Asprilla"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="3"/>
+    <s v="Elvis Cordoba y Anair Joao"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Chavez"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Chavez Cornejo"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Gonzalez Molina"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Nuñez"/>
+    <m/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Otero "/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Petana"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Robles"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="3"/>
+    <s v="Familia Russo"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Salazar"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="3"/>
+    <s v="Srta. Manyani Quintero y Jose Gómez"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Llerena Barcena"/>
     <m/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="ENTREGADO"/>
     <x v="4"/>
-    <s v="Familia Gonzalez"/>
-    <m/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Reyes"/>
-    <m/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Maykel"/>
-    <m/>
-    <n v="3"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="Familia Calvo"/>
-    <m/>
-    <n v="4"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="Familia Castillo"/>
-    <m/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Familia Galeano"/>
-    <m/>
-    <n v="3"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Kevin Sambulá"/>
-    <m/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Sra. Rufina"/>
-    <m/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Familia Cedeño Cussati"/>
-    <m/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Srta. Celideth Ramires"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Srta. Jidarky Arias"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Xiomara Dominguez"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Amarilis Arrollo"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Aylin Zerna"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Erick Gonzalez"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Fernando Castillo"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Janeth Rojas"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Lilia Osorio"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yirelki Jimenez"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Carolina Ma Li"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Daniel Tejada"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Freddy"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="José Arturo Bonilla"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Juan Carlos Soto"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Lourdes y Obed"/>
-    <m/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Sra. Delma de Sween"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Sra. Elba Atencio"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Sra. Ivonne Joseph"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="Yorlenis Sanjur"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Angel Smith"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Estefany Ruiz"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Juan Pablo Doble"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Kevin Contreras"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Martin Ibarra"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Familia Quiros"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Jessica Dean"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Shamir Parquer"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Abuelitos Custodio Cedeño"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Dery"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Tío David y Esposa"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Abuelitos Girón Bosquez"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Argelis Colona"/>
-    <m/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Victor Colona"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Alimariel Fuentes"/>
-    <m/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Chavez"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Chavez Cornejo"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Gonzalez Molina"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Nuñez"/>
-    <m/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Otero "/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Petana"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Robles"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Salazar"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Abuelitos Sambula Aguilar"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Neidy Sambulá"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="Familia Girón Campos (tío Javier)"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="Familia Girón Montes (tio tedy)"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Andy y Marlon Asprilla"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Elvis Cordoba y Anair Joao"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Familia Russo"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Srta. Manyani Quintero y Jose Gómez"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Familia Montenegro Girón"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Familia Llerena Barcena"/>
+    <s v="Srtas.Ana Paola,  María Lucía y Sherlyin"/>
     <m/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Srtas.Ana Paola,  María Lucía y Sherlyin"/>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Argelis Colona"/>
     <m/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Tia Mabys e hijas (tía Mabis)"/>
+    <s v="HECHO"/>
+    <x v="2"/>
+    <s v="Familia Bosa Pereira"/>
     <m/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Victor Colona (tio)"/>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Tia Mabys e hijas (tía Mabis)"/>
     <m/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Lozano "/>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Victor Colona (tio)"/>
     <m/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Martínez"/>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Clark"/>
     <m/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Sarmiento Gonzalez"/>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Lozano "/>
     <m/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="4"/>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Martínez"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Sarmiento Gonzalez"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
     <s v="Familia Trombeta"/>
     <m/>
     <n v="6"/>
     <n v="3"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="ENTREGADO"/>
     <x v="3"/>
-    <s v="Familia Bosa Pereira"/>
+    <s v="Maykel"/>
     <m/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="HECHO"/>
     <x v="4"/>
-    <s v="Familia Gonzalez de Leon "/>
+    <s v="Familia Calvo"/>
     <m/>
     <n v="4"/>
     <n v="4"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Gonzalez Ulate"/>
+    <s v="HECHO"/>
+    <x v="1"/>
+    <s v="Familia Custodio Barranco"/>
     <m/>
     <n v="4"/>
     <n v="4"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Montes Sarmiento "/>
+    <s v="HECHO"/>
+    <x v="2"/>
+    <s v="Familia Girón Camargo (tio jimmy)"/>
     <m/>
     <n v="4"/>
     <n v="4"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="HECHO"/>
     <x v="2"/>
-    <s v="Familia Custodio Barranco"/>
+    <s v="Familia Girón Perez (tíó aly)"/>
     <m/>
     <n v="4"/>
     <n v="4"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="ENTREGADO"/>
     <x v="3"/>
-    <s v="Familia Girón Camargo (tio jimmy)"/>
+    <s v="Familia Gonzalez de Leon "/>
     <m/>
     <n v="4"/>
     <n v="4"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="ENTREGADO"/>
     <x v="3"/>
-    <s v="Familia Girón Perez (tíó aly)"/>
+    <s v="Familia Gonzalez Ulate"/>
     <m/>
     <n v="4"/>
     <n v="4"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Montes Sarmiento "/>
+    <m/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="1"/>
     <s v="Familia Castillo Custodio"/>
     <m/>
     <n v="5"/>
     <n v="5"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Familia Girón Colona(papás)"/>
+    <s v="HECHO"/>
+    <x v="1"/>
+    <s v="Raul Custodio"/>
     <m/>
     <n v="5"/>
     <n v="5"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Familia Girón Mendoza (tío Julio)"/>
+    <s v="HECHO"/>
+    <x v="2"/>
+    <s v="Familia Escala Girón (tía Nuria)"/>
     <m/>
     <n v="5"/>
     <n v="5"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Familia Ruiz Cruz"/>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Familia Girón Colona(papás)"/>
     <m/>
     <n v="5"/>
     <n v="5"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="ENTREGADO"/>
     <x v="2"/>
-    <s v="Raul Custodio"/>
+    <s v="Familia Girón Mendoza (tío Julio)"/>
     <m/>
     <n v="5"/>
     <n v="5"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="ENTREGADO"/>
     <x v="3"/>
-    <s v="Familia Escala Girón (tía Nuria)"/>
+    <s v="Familia Ruiz Cruz"/>
     <m/>
     <n v="5"/>
     <n v="5"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="3"/>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
     <s v="Familia Colona Rodriguez"/>
     <m/>
     <n v="6"/>
     <n v="6"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="1"/>
+    <s v="Familia Cedeño Alvarado"/>
+    <m/>
+    <n v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="1"/>
+    <s v="Familia Leiva Cedeño"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="1"/>
+    <s v="Tío Manuel y Prima Zulay"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Gonzalez"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Familia Reyes"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="3"/>
+    <s v="Sra. Rufina"/>
+    <m/>
+    <n v="1"/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Invitaciones de la boda" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G6:I11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Invitaciones de la boda" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G6:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
+        <item x="4"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1390,11 +1363,10 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" numFmtId="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
+  <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
@@ -1403,6 +1375,12 @@
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -1715,7 +1693,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1726,7 +1704,7 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -1741,8 +1719,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1753,22 +1731,22 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1777,13 +1755,13 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
@@ -1795,13 +1773,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
@@ -1813,16 +1791,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="13">
         <v>0</v>
@@ -1830,320 +1808,354 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="13">
         <v>0</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E8" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="13">
         <v>0</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H8" s="10">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="I8" s="10">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="13">
         <v>0</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="H9" s="10">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I9" s="10">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="13">
         <v>0</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="H10" s="10">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I10" s="10">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H11" s="10">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="I11" s="10">
-        <v>169</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="10">
+        <v>86</v>
+      </c>
+      <c r="I12" s="10">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="6">
-        <v>3</v>
-      </c>
-      <c r="F13" s="13">
-        <v>3</v>
+      <c r="H13" s="10">
+        <v>213</v>
+      </c>
+      <c r="I13" s="10">
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E14" s="6">
-        <v>2</v>
-      </c>
-      <c r="F14" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E15" s="6">
-        <v>2</v>
-      </c>
-      <c r="F15" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E16" s="6">
-        <v>3</v>
-      </c>
-      <c r="F16" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4</v>
-      </c>
-      <c r="F17" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="7">
-        <v>2</v>
-      </c>
-      <c r="F18" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6">
-        <v>3</v>
-      </c>
-      <c r="F19" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E22" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="13">
         <v>1</v>
@@ -2151,13 +2163,13 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
+      <c r="C23" t="s">
+        <v>27</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -2168,13 +2180,13 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>93</v>
+      <c r="C24" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -2185,15 +2197,15 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="7">
         <v>1</v>
       </c>
       <c r="F25" s="13">
@@ -2202,15 +2214,15 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
         <v>1</v>
       </c>
       <c r="F26" s="13">
@@ -2219,13 +2231,13 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
@@ -2236,13 +2248,13 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -2253,13 +2265,13 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -2270,13 +2282,13 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
@@ -2287,13 +2299,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -2304,13 +2316,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -2321,13 +2333,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
@@ -2338,13 +2350,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -2355,234 +2367,234 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
+        <v>19</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E36" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E38" s="6">
         <v>2</v>
       </c>
       <c r="F38" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="E39" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="E40" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="E42" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E43" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2</v>
       </c>
       <c r="F44" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E45" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E46" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
       </c>
       <c r="E48" s="6">
         <v>2</v>
@@ -2593,13 +2605,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>92</v>
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
       </c>
       <c r="E49" s="6">
         <v>2</v>
@@ -2610,13 +2622,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E50" s="6">
         <v>2</v>
@@ -2627,13 +2639,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E51" s="6">
         <v>2</v>
@@ -2644,16 +2656,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="6">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="8">
+        <v>3</v>
       </c>
       <c r="F52" s="13">
         <v>2</v>
@@ -2661,13 +2673,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E53" s="6">
         <v>2</v>
@@ -2678,15 +2690,15 @@
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="6">
+        <v>20</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="8">
         <v>2</v>
       </c>
       <c r="F54" s="13">
@@ -2695,16 +2707,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E55" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="13">
         <v>2</v>
@@ -2712,13 +2724,13 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E56" s="6">
         <v>2</v>
@@ -2729,16 +2741,16 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="8">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="6">
+        <v>2</v>
       </c>
       <c r="F57" s="13">
         <v>2</v>
@@ -2746,16 +2758,16 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E58" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="13">
         <v>2</v>
@@ -2763,13 +2775,13 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
@@ -2780,13 +2792,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E60" s="6">
         <v>2</v>
@@ -2797,16 +2809,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E61" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" s="13">
         <v>2</v>
@@ -2814,13 +2826,13 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
@@ -2831,10 +2843,10 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
         <v>60</v>
@@ -2848,13 +2860,13 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -2865,186 +2877,186 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E65" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="6">
-        <v>2</v>
+      <c r="E66" s="8">
+        <v>3</v>
       </c>
       <c r="F66" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E67" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E68" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E69" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="E70" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="8">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="6">
+        <v>3</v>
       </c>
       <c r="F71" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E72" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E73" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E74" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E75" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F75" s="13">
         <v>3</v>
@@ -3052,15 +3064,15 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E76" s="8">
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="6">
         <v>3</v>
       </c>
       <c r="F76" s="13">
@@ -3069,343 +3081,331 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="6">
-        <v>3</v>
+      <c r="E77" s="7">
+        <v>4</v>
       </c>
       <c r="F77" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E78" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E79" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E80" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E81" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E82" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F82" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E83" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E84" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E85" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F85" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="E86" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F86" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="E87" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F87" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E88" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F88" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E89" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F89" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E90" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F90" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="E91" s="6">
-        <v>5</v>
-      </c>
-      <c r="F91" s="13">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F91" s="13"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E92" s="6">
-        <v>5</v>
-      </c>
-      <c r="F92" s="13">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F92" s="13"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E93" s="6">
-        <v>5</v>
-      </c>
-      <c r="F93" s="13">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F93" s="13"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E94" s="6">
-        <v>5</v>
-      </c>
-      <c r="F94" s="13">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F94" s="13"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E95" s="6">
-        <v>5</v>
-      </c>
-      <c r="F95" s="13">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F95" s="13"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E96" s="6">
-        <v>6</v>
-      </c>
-      <c r="F96" s="13">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F96" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F96">
@@ -3415,7 +3415,7 @@
     </sortState>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId2"/>
@@ -3424,142 +3424,601 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D25"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" ht="30">
-      <c r="B3" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B4" s="18" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1">
+      <c r="B3" s="15"/>
+      <c r="C3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="15"/>
+      <c r="C4" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A6"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="15"/>
+      <c r="C7" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B8" s="15"/>
+      <c r="C8" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B5" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B7" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A9"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="15"/>
+      <c r="C10" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="15"/>
+      <c r="C11" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="15"/>
+      <c r="C13" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="15"/>
+      <c r="C14" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="2:4" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="15"/>
+      <c r="C16" s="18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="15"/>
+      <c r="C17" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="15"/>
+      <c r="C19" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="15"/>
+      <c r="C20" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A21"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="15"/>
+      <c r="C22" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="15"/>
+      <c r="C23" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="A24"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="15"/>
+      <c r="C25" s="18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B18" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B19" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B20" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B21" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B22" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B23" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B24" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B25" s="18" t="s">
-        <v>136</v>
-      </c>
+    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="15"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="17"/>
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="17"/>
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="17"/>
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" s="15"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="17"/>
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="17"/>
+      <c r="B59" s="15"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" s="15"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="17"/>
+      <c r="B61" s="15"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="17"/>
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" s="15"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="17"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="17"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="17"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="17"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="17"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="17"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="17"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="17"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="17"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="17"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="17"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="17"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="17"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="17"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="17"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="17"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="17"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="17"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="17"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="17"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="17"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="17"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="17"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="17"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="17"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="17"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="17"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="17"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="17"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="17"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="17"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="17"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="17"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="17"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="17"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="17"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="17"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="17"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="17"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="17"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="17"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="17"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="17"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="17"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="17"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="17"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="17"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="17"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="17"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="17"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="17"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="17"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="17"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="17"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="17"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="17"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="17"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="17"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="17"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="17"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="17"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="17"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="17"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="17"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="17"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="17"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="17"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="17"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="17"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="17"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="17"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="17"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="17"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="17"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="17"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="17"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="17"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="17"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="17"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="17"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="17"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="17"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="17"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="17"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="17"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="17"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="17"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="17"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="17"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="17"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="17"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="17"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Invitados de boda ultimo.xlsx
+++ b/Invitados de boda ultimo.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3990"/>
   </bookViews>
@@ -15,7 +20,7 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="45" r:id="rId3"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -356,9 +361,6 @@
     <t>Tarjetas</t>
   </si>
   <si>
-    <t>Rótulos de fila</t>
-  </si>
-  <si>
     <t>Confirmados</t>
   </si>
   <si>
@@ -435,13 +437,16 @@
   </si>
   <si>
     <t>LISTA DE TARJETAS DE LA BODA</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,15 +530,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +558,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jorge Girón" refreshedDate="43140.668608101849" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="94">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="HP" refreshedDate="43143.520650810184" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="94">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:F96" sheet="LISTA TOTAL"/>
   </cacheSource>
@@ -563,11 +568,11 @@
     </cacheField>
     <cacheField name="Categoría" numFmtId="0">
       <sharedItems count="5">
+        <s v="Familia Novio"/>
+        <s v="Familia Novia"/>
+        <s v="Amistad Novia"/>
         <s v="Amistad Novio"/>
-        <s v="Familia Novia"/>
-        <s v="Familia Novio"/>
         <s v="Iglesia"/>
-        <s v="Amistad Novia"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Tarjetas" numFmtId="0">
@@ -583,6 +588,11 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -591,17 +601,17 @@
   <r>
     <s v="ENTREGADO"/>
     <x v="0"/>
-    <s v="Gustavo Rueda"/>
-    <m/>
-    <n v="2"/>
+    <s v="Diana Colona"/>
+    <m/>
     <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
     <x v="0"/>
-    <s v="Javier Llinares"/>
-    <m/>
-    <n v="2"/>
+    <s v="Familia Adang Girón"/>
+    <m/>
+    <n v="0"/>
     <n v="0"/>
   </r>
   <r>
@@ -613,73 +623,169 @@
     <n v="0"/>
   </r>
   <r>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Familia Llerena Barcena"/>
+    <m/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Gustavo Rueda"/>
+    <m/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Itzel Colona"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Javier Llinares"/>
+    <m/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Lourdes y Obed"/>
+    <m/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Amarilis Arrollo"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="4"/>
+    <s v="Angel Smith"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Aylin Zerna"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Carolina Ma Li"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Daniel Tejada"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Erick Gonzalez"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="4"/>
+    <s v="Estefany Ruiz"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Familia Cedeño Cussati"/>
+    <m/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Fernando Castillo"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Freddy"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="José Arturo Bonilla"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Juan Carlos Soto"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="4"/>
+    <s v="Juan Pablo Doble"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="4"/>
+    <s v="Kevin Contreras"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
     <s v="HECHO"/>
     <x v="1"/>
     <s v="Kevin Sambulá"/>
     <m/>
     <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Diana Colona"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Familia Adang Girón"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Itzel Colona"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
     <x v="3"/>
-    <s v="Lourdes y Obed"/>
-    <m/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Cedeño Cussati"/>
-    <m/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Srta. Celideth Ramires"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Srta. Jidarky Arias"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Xiomara Dominguez"/>
+    <s v="Lilia Osorio"/>
     <m/>
     <n v="1"/>
     <n v="1"/>
@@ -687,215 +793,87 @@
   <r>
     <s v="HECHO"/>
     <x v="4"/>
+    <s v="Martin Ibarra"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Sra. Delma de Sween"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Sra. Elba Atencio"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Sra. Ivonne Joseph"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Srta. Celideth Ramires"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Srta. Jidarky Arias"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Xiomara Dominguez"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Yirelki Jimenez"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="2"/>
     <s v="Yorlenis Sanjur"/>
     <m/>
     <n v="1"/>
     <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Amarilis Arrollo"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Aylin Zerna"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Erick Gonzalez"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Fernando Castillo"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Lilia Osorio"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Yirelki Jimenez"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="3"/>
-    <s v="Angel Smith"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Carolina Ma Li"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Daniel Tejada"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="3"/>
-    <s v="Estefany Ruiz"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Freddy"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="José Arturo Bonilla"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Juan Carlos Soto"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="3"/>
-    <s v="Juan Pablo Doble"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="3"/>
-    <s v="Kevin Contreras"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="3"/>
-    <s v="Martin Ibarra"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Sra. Delma de Sween"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Sra. Elba Atencio"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Sra. Ivonne Joseph"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="4"/>
-    <s v="Familia Castillo"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Quiros"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Ramos"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Jessica Dean"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Janeth Rojas"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Shamir Parquer"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
     <x v="1"/>
     <s v="Abuelitos Custodio Cedeño"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Abuelitos Girón Bosquez"/>
     <m/>
     <n v="2"/>
     <n v="2"/>
@@ -910,8 +888,168 @@
   </r>
   <r>
     <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Alimariel Fuentes"/>
+    <m/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="4"/>
+    <s v="Andy y Marlon Asprilla"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
     <x v="1"/>
     <s v="Dery"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="4"/>
+    <s v="Elvis Cordoba y Anair Joao"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="2"/>
+    <s v="Familia Castillo"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Chavez"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Chavez Cornejo"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="0"/>
+    <s v="Familia Girón Campos (tío Javier)"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="0"/>
+    <s v="Familia Girón Montes (tio tedy)"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Gonzalez Molina"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Pendiente hacer"/>
+    <x v="0"/>
+    <s v="Familia Montenegro Girón"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Nuñez"/>
+    <m/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Otero "/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Petana"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Familia Quiros"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Familia Ramos"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Robles"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="4"/>
+    <s v="Familia Russo"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Salazar"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Janeth Rojas"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="2"/>
+    <s v="Jessica Dean"/>
     <m/>
     <n v="2"/>
     <n v="2"/>
@@ -926,6 +1064,22 @@
   </r>
   <r>
     <s v="ENTREGADO"/>
+    <x v="3"/>
+    <s v="Shamir Parquer"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="4"/>
+    <s v="Srta. Manyani Quintero y Jose Gómez"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
     <x v="1"/>
     <s v="Tío Carlos y Primo Carlos Daniel"/>
     <m/>
@@ -942,247 +1096,103 @@
   </r>
   <r>
     <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Victor Colona"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Argelis Colona"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="0"/>
+    <s v="Familia Bosa Pereira"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Clark"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Lozano "/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Martínez"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Sarmiento Gonzalez"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Trombeta"/>
+    <m/>
+    <n v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Maykel"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
     <x v="2"/>
-    <s v="Abuelitos Girón Bosquez"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
+    <s v="Srtas.Ana Paola,  María Lucía y Sherlyin"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Tia Mabys e hijas (tía Mabis)"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Victor Colona (tio)"/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
   </r>
   <r>
     <s v="HECHO"/>
     <x v="2"/>
-    <s v="Familia Girón Campos (tío Javier)"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="2"/>
-    <s v="Familia Girón Montes (tio tedy)"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="Pendiente hacer"/>
-    <x v="2"/>
-    <s v="Familia Montenegro Girón"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Victor Colona"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Alimariel Fuentes"/>
-    <m/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="3"/>
-    <s v="Andy y Marlon Asprilla"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="3"/>
-    <s v="Elvis Cordoba y Anair Joao"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Chavez"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Chavez Cornejo"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Gonzalez Molina"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Nuñez"/>
-    <m/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Otero "/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Petana"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Robles"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="3"/>
-    <s v="Familia Russo"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Salazar"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="3"/>
-    <s v="Srta. Manyani Quintero y Jose Gómez"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Llerena Barcena"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Srtas.Ana Paola,  María Lucía y Sherlyin"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Argelis Colona"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="2"/>
-    <s v="Familia Bosa Pereira"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Tia Mabys e hijas (tía Mabis)"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Victor Colona (tio)"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Clark"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Lozano "/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Martínez"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Sarmiento Gonzalez"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Trombeta"/>
-    <m/>
-    <n v="6"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Maykel"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="4"/>
     <s v="Familia Calvo"/>
     <m/>
     <n v="4"/>
@@ -1198,7 +1208,7 @@
   </r>
   <r>
     <s v="HECHO"/>
-    <x v="2"/>
+    <x v="0"/>
     <s v="Familia Girón Camargo (tio jimmy)"/>
     <m/>
     <n v="4"/>
@@ -1206,7 +1216,7 @@
   </r>
   <r>
     <s v="HECHO"/>
-    <x v="2"/>
+    <x v="0"/>
     <s v="Familia Girón Perez (tíó aly)"/>
     <m/>
     <n v="4"/>
@@ -1214,7 +1224,7 @@
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Familia Gonzalez de Leon "/>
     <m/>
     <n v="4"/>
@@ -1222,7 +1232,7 @@
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Familia Gonzalez Ulate"/>
     <m/>
     <n v="4"/>
@@ -1230,7 +1240,7 @@
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Familia Montes Sarmiento "/>
     <m/>
     <n v="4"/>
@@ -1240,6 +1250,38 @@
     <s v="ENTREGADO"/>
     <x v="1"/>
     <s v="Familia Castillo Custodio"/>
+    <m/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="0"/>
+    <s v="Familia Escala Girón (tía Nuria)"/>
+    <m/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Familia Girón Colona(papás)"/>
+    <m/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
+    <s v="Familia Girón Mendoza (tío Julio)"/>
+    <m/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Ruiz Cruz"/>
     <m/>
     <n v="5"/>
     <n v="5"/>
@@ -1253,40 +1295,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="HECHO"/>
-    <x v="2"/>
-    <s v="Familia Escala Girón (tía Nuria)"/>
-    <m/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Familia Girón Colona(papás)"/>
-    <m/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Familia Girón Mendoza (tío Julio)"/>
-    <m/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Ruiz Cruz"/>
-    <m/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
+    <s v="ENTREGADO"/>
+    <x v="0"/>
     <s v="Familia Colona Rodriguez"/>
     <m/>
     <n v="6"/>
@@ -1302,6 +1312,14 @@
   </r>
   <r>
     <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Gonzalez"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
     <x v="1"/>
     <s v="Familia Leiva Cedeño"/>
     <m/>
@@ -1310,51 +1328,43 @@
   </r>
   <r>
     <s v="ENTREGADO"/>
+    <x v="4"/>
+    <s v="Familia Reyes"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <x v="4"/>
+    <s v="Sra. Rufina"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
     <x v="1"/>
     <s v="Tío Manuel y Prima Zulay"/>
     <m/>
     <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Gonzalez"/>
-    <m/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Familia Reyes"/>
-    <m/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="3"/>
-    <s v="Sra. Rufina"/>
-    <m/>
-    <n v="1"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Invitaciones de la boda" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Invitaciones de la boda" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G6:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1448,7 +1458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1480,9 +1490,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1514,6 +1525,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1689,22 +1701,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="15" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -1718,18 +1730,18 @@
     <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -1746,50 +1758,50 @@
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="13">
         <v>0</v>
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="E4" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="13">
         <v>0</v>
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -1806,18 +1818,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="13">
         <v>0</v>
@@ -1826,33 +1838,33 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="H7" t="s">
         <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1860,7 +1872,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -1875,21 +1887,21 @@
         <v>24</v>
       </c>
       <c r="I8" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="13">
         <v>0</v>
@@ -1904,7 +1916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1927,21 +1939,21 @@
         <v>38</v>
       </c>
       <c r="I10" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -1956,15 +1968,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -1982,15 +1994,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>92</v>
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -2005,18 +2017,18 @@
         <v>213</v>
       </c>
       <c r="I13" s="10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -2025,15 +2037,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -2042,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -2059,41 +2071,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6">
+        <v>69</v>
+      </c>
+      <c r="E17" s="7">
         <v>1</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2110,32 +2122,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
         <v>1</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -2144,32 +2156,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
       <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -2178,15 +2190,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -2195,49 +2207,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7">
+        <v>6</v>
+      </c>
+      <c r="E26" s="6">
         <v>1</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
@@ -2246,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2254,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -2263,15 +2275,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -2280,15 +2292,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
@@ -2297,15 +2309,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -2314,15 +2326,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
+        <v>19</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -2331,15 +2343,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
+        <v>19</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
@@ -2348,15 +2360,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -2365,32 +2377,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="7">
-        <v>2</v>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
       </c>
       <c r="F35" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
       </c>
       <c r="E36" s="6">
         <v>2</v>
@@ -2399,15 +2411,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E37" s="6">
         <v>2</v>
@@ -2416,15 +2428,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
       </c>
       <c r="E38" s="6">
         <v>2</v>
@@ -2433,32 +2445,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="6">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="8">
+        <v>3</v>
       </c>
       <c r="F39" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E40" s="6">
         <v>2</v>
@@ -2467,7 +2479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2475,7 +2487,7 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E41" s="6">
         <v>2</v>
@@ -2484,83 +2496,83 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="6">
+        <v>20</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="8">
         <v>2</v>
       </c>
       <c r="F42" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="6">
+        <v>19</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="7">
         <v>2</v>
       </c>
       <c r="F43" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="6">
-        <v>2</v>
-      </c>
-      <c r="F44" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1">
-      <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="6">
-        <v>2</v>
-      </c>
-      <c r="F45" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>35</v>
-      </c>
       <c r="B46" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E46" s="6">
         <v>2</v>
@@ -2569,15 +2581,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E47" s="6">
         <v>2</v>
@@ -2586,15 +2598,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="E48" s="6">
         <v>2</v>
@@ -2603,15 +2615,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E49" s="6">
         <v>2</v>
@@ -2620,32 +2632,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E50" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E51" s="6">
         <v>2</v>
@@ -2654,151 +2666,151 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="8">
-        <v>3</v>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="6">
+        <v>2</v>
       </c>
       <c r="F52" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="6">
-        <v>2</v>
-      </c>
-      <c r="F53" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1">
-      <c r="A54" t="s">
+      <c r="B56" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="6">
+        <v>2</v>
+      </c>
+      <c r="F56" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="6">
+        <v>2</v>
+      </c>
+      <c r="F57" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2</v>
+      </c>
+      <c r="F59" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="8">
-        <v>2</v>
-      </c>
-      <c r="F54" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="6">
-        <v>2</v>
-      </c>
-      <c r="F55" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1">
-      <c r="A56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="6">
-        <v>2</v>
-      </c>
-      <c r="F56" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1">
-      <c r="A57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="6">
-        <v>2</v>
-      </c>
-      <c r="F57" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1">
-      <c r="A58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" s="6">
-        <v>3</v>
-      </c>
-      <c r="F58" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
-      <c r="A59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59" s="6">
-        <v>2</v>
-      </c>
-      <c r="F59" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
       <c r="B60" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E60" s="6">
         <v>2</v>
@@ -2807,15 +2819,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>35</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E61" s="6">
         <v>2</v>
@@ -2824,7 +2836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
@@ -2841,15 +2853,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>35</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E63" s="6">
         <v>2</v>
@@ -2858,15 +2870,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -2875,49 +2887,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E65" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E66" s="8">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="6">
         <v>3</v>
       </c>
       <c r="F66" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="E67" s="6">
         <v>3</v>
@@ -2926,15 +2938,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E68" s="6">
         <v>3</v>
@@ -2943,15 +2955,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>35</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="E69" s="6">
         <v>3</v>
@@ -2960,15 +2972,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>35</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E70" s="6">
         <v>3</v>
@@ -2977,7 +2989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -2985,7 +2997,7 @@
         <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E71" s="6">
         <v>3</v>
@@ -2994,7 +3006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -3002,16 +3014,16 @@
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E72" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F72" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -3019,7 +3031,7 @@
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E73" s="6">
         <v>3</v>
@@ -3028,49 +3040,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>35</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" s="6">
+        <v>19</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="8">
         <v>3</v>
       </c>
       <c r="F74" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>35</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E75" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F75" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>35</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E76" s="6">
         <v>3</v>
@@ -3079,7 +3091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -3096,7 +3108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -3113,7 +3125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -3130,7 +3142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>97</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -3164,7 +3176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -3181,7 +3193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -3198,7 +3210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -3215,15 +3227,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>97</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="E85" s="6">
         <v>5</v>
@@ -3232,15 +3244,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E86" s="6">
         <v>5</v>
@@ -3249,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>35</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E87" s="6">
         <v>5</v>
@@ -3266,15 +3278,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>35</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E88" s="6">
         <v>5</v>
@@ -3283,15 +3295,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E89" s="6">
         <v>5</v>
@@ -3300,7 +3312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -3317,7 +3329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -3332,22 +3344,22 @@
       </c>
       <c r="F91" s="13"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>35</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E92" s="6">
         <v>2</v>
       </c>
       <c r="F92" s="13"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>35</v>
       </c>
@@ -3355,61 +3367,60 @@
         <v>17</v>
       </c>
       <c r="C93" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" s="6">
+        <v>2</v>
+      </c>
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
         <v>89</v>
       </c>
-      <c r="E93" s="6">
-        <v>2</v>
-      </c>
-      <c r="F93" s="13"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" t="s">
-        <v>63</v>
-      </c>
-      <c r="E94" s="6">
-        <v>2</v>
-      </c>
-      <c r="F94" s="13"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>35</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C95" t="s">
-        <v>62</v>
-      </c>
-      <c r="E95" s="6">
-        <v>2</v>
-      </c>
-      <c r="F95" s="13"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" t="s">
-        <v>94</v>
-      </c>
       <c r="E96" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F96">
-    <filterColumn colId="3"/>
     <sortState ref="A3:F96">
       <sortCondition ref="F2:F96"/>
     </sortState>
@@ -3423,21 +3434,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" s="1"/>
@@ -3445,8 +3456,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="23"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
       <c r="B2" s="19"/>
       <c r="C2" s="16" t="s">
         <v>109</v>
@@ -3456,568 +3467,568 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
-      <c r="C3" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="C3" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="15"/>
       <c r="C6" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="15"/>
       <c r="C9" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="15"/>
       <c r="C12" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="15"/>
       <c r="C18" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" s="15"/>
       <c r="C21" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="15"/>
       <c r="C24" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="15"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="15"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="15"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="15"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="15"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="15"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="15"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="15"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="15"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="15"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="15"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="15"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="15"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="15"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="17"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="17"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="17"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="17"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="17"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="17"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="17"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
     </row>
   </sheetData>

--- a/Invitados de boda ultimo.xlsx
+++ b/Invitados de boda ultimo.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LISTA TOTAL'!$A$2:$F$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LISTA TOTAL'!$A$2:$F$95</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="136">
   <si>
     <t>Categoría</t>
   </si>
@@ -310,12 +310,6 @@
     <t>Srta. Manyani Quintero y Jose Gómez</t>
   </si>
   <si>
-    <t>Sra. Rufina</t>
-  </si>
-  <si>
-    <t>Suma de Puestos</t>
-  </si>
-  <si>
     <t>Familia Ramos</t>
   </si>
   <si>
@@ -352,9 +346,6 @@
     <t>Andy y Marlon Asprilla</t>
   </si>
   <si>
-    <t>Valores</t>
-  </si>
-  <si>
     <t>NOMBRES DE LAS MESAS</t>
   </si>
   <si>
@@ -440,6 +431,9 @@
   </si>
   <si>
     <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>(en blanco)</t>
   </si>
 </sst>
 </file>
@@ -558,34 +552,33 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="HP" refreshedDate="43143.520650810184" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="94">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="HP" refreshedDate="43144.841111226851" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="93">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:F96" sheet="LISTA TOTAL"/>
+    <worksheetSource ref="A2:F95" sheet="LISTA TOTAL"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Estado" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Categoría" numFmtId="0">
-      <sharedItems count="5">
-        <s v="Familia Novio"/>
-        <s v="Familia Novia"/>
-        <s v="Amistad Novia"/>
-        <s v="Amistad Novio"/>
-        <s v="Iglesia"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Tarjetas" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Mesa" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="6" count="4">
+        <m/>
+        <n v="6"/>
+        <n v="5"/>
+        <n v="4"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Puestos" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
     <cacheField name="Confirmados" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -597,786 +590,777 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="94">
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="93">
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <s v="Familia Llerena Barcena"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <s v="Familia Cedeño Cussati"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <s v="Srta. Celideth Ramires"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <s v="Srta. Jidarky Arias"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <s v="Xiomara Dominguez"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Amistad Novia"/>
+    <s v="Yorlenis Sanjur"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Amistad Novia"/>
+    <s v="Familia Castillo"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <s v="Familia Quiros"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <s v="Familia Ramos"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <s v="Jessica Dean"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <s v="Srtas.Ana Paola,  María Lucía y Sherlyin"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Amistad Novia"/>
+    <s v="Familia Calvo"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <s v="Gustavo Rueda"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <s v="Javier Llinares"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <s v="Amarilis Arrollo"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <s v="Aylin Zerna"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <s v="Erick Gonzalez"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <s v="Fernando Castillo"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <s v="Lilia Osorio"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <s v="Yirelki Jimenez"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <s v="Janeth Rojas"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <s v="Shamir Parquer"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <s v="Familia Galeano"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <s v="Kevin Sambulá"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <s v="Abuelitos Custodio Cedeño"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <s v="Abuelitos Sambula Aguilar"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <s v="Dery"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <s v="Neidy Sambulá"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <s v="Tío Carlos y Primo Carlos Daniel"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <s v="Tío David y Esposa"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <s v="Familia Custodio Barranco"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <s v="Familia Castillo Custodio"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <s v="Raul Custodio"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <s v="Familia Cedeño Alvarado"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <s v="Familia Leiva Cedeño"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <s v="Tío Manuel y Prima Zulay"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
     <s v="Diana Colona"/>
-    <m/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <x v="0"/>
+    <s v="Familia Novio"/>
     <s v="Familia Adang Girón"/>
-    <m/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <s v="HECHO"/>
-    <x v="1"/>
-    <s v="Familia Galeano"/>
-    <m/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Familia Llerena Barcena"/>
-    <m/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Gustavo Rueda"/>
-    <m/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
     <s v="Itzel Colona"/>
-    <m/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Javier Llinares"/>
-    <m/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Lourdes y Obed"/>
-    <m/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Amarilis Arrollo"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
+    <s v="Familia Novio"/>
+    <s v="Abuelitos Girón Bosquez"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
   </r>
   <r>
     <s v="HECHO"/>
-    <x v="4"/>
-    <s v="Angel Smith"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Aylin Zerna"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Carolina Ma Li"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Daniel Tejada"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Erick Gonzalez"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
+    <s v="Familia Novio"/>
+    <s v="Familia Girón Campos (tío Javier)"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
   </r>
   <r>
     <s v="HECHO"/>
-    <x v="4"/>
-    <s v="Estefany Ruiz"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Familia Cedeño Cussati"/>
-    <m/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Fernando Castillo"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Freddy"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="José Arturo Bonilla"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Juan Carlos Soto"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="4"/>
-    <s v="Juan Pablo Doble"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="4"/>
-    <s v="Kevin Contreras"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="1"/>
-    <s v="Kevin Sambulá"/>
-    <m/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Lilia Osorio"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="4"/>
-    <s v="Martin Ibarra"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Sra. Delma de Sween"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Sra. Elba Atencio"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Sra. Ivonne Joseph"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Srta. Celideth Ramires"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Srta. Jidarky Arias"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Xiomara Dominguez"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Yirelki Jimenez"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="2"/>
-    <s v="Yorlenis Sanjur"/>
-    <m/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="1"/>
-    <s v="Abuelitos Custodio Cedeño"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Abuelitos Girón Bosquez"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="1"/>
-    <s v="Abuelitos Sambula Aguilar"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Alimariel Fuentes"/>
-    <m/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="4"/>
-    <s v="Andy y Marlon Asprilla"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="1"/>
-    <s v="Dery"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="4"/>
-    <s v="Elvis Cordoba y Anair Joao"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="2"/>
-    <s v="Familia Castillo"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Chavez"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Chavez Cornejo"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="0"/>
-    <s v="Familia Girón Campos (tío Javier)"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="0"/>
+    <s v="Familia Novio"/>
     <s v="Familia Girón Montes (tio tedy)"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Gonzalez Molina"/>
-    <m/>
+    <x v="0"/>
     <n v="2"/>
     <n v="2"/>
   </r>
   <r>
     <s v="Pendiente hacer"/>
-    <x v="0"/>
+    <s v="Familia Novio"/>
     <s v="Familia Montenegro Girón"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Nuñez"/>
-    <m/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Otero "/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Petana"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Familia Quiros"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Familia Ramos"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Robles"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="4"/>
-    <s v="Familia Russo"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Salazar"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Janeth Rojas"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Jessica Dean"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="1"/>
-    <s v="Neidy Sambulá"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="3"/>
-    <s v="Shamir Parquer"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="4"/>
-    <s v="Srta. Manyani Quintero y Jose Gómez"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="1"/>
-    <s v="Tío Carlos y Primo Carlos Daniel"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="1"/>
-    <s v="Tío David y Esposa"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
     <s v="Victor Colona"/>
-    <m/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
     <s v="Argelis Colona"/>
-    <m/>
+    <x v="0"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
     <s v="HECHO"/>
-    <x v="0"/>
+    <s v="Familia Novio"/>
     <s v="Familia Bosa Pereira"/>
-    <m/>
+    <x v="0"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Clark"/>
-    <m/>
+    <s v="Familia Novio"/>
+    <s v="Tia Mabys e hijas (tía Mabis)"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Lozano "/>
-    <m/>
+    <s v="Familia Novio"/>
+    <s v="Victor Colona (tio)"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Martínez"/>
-    <m/>
+    <s v="HECHO"/>
+    <s v="Familia Novio"/>
+    <s v="Familia Girón Camargo (tio jimmy)"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novio"/>
+    <s v="Familia Girón Perez (tíó aly)"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novio"/>
+    <s v="Familia Escala Girón (tía Nuria)"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
+    <s v="Familia Girón Colona(papás)"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
+    <s v="Familia Girón Mendoza (tío Julio)"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
+    <s v="Familia Colona Rodriguez"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Lourdes y Obed"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <s v="Angel Smith"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Carolina Ma Li"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Daniel Tejada"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <s v="Estefany Ruiz"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Freddy"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="José Arturo Bonilla"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Juan Carlos Soto"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <s v="Juan Pablo Doble"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <s v="Kevin Contreras"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <s v="Martin Ibarra"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Sra. Delma de Sween"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Sra. Elba Atencio"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Sra. Ivonne Joseph"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Alimariel Fuentes"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <s v="Andy y Marlon Asprilla"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <s v="Elvis Cordoba y Anair Joao"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Chavez"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Chavez Cornejo"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Gonzalez Molina"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Nuñez"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Otero "/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Petana"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Robles"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Russo"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Salazar"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <s v="Srta. Manyani Quintero y Jose Gómez"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Clark"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Sarmiento Gonzalez"/>
-    <m/>
+    <s v="Iglesia"/>
+    <s v="Familia Lozano "/>
+    <x v="0"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <x v="4"/>
+    <s v="Iglesia"/>
+    <s v="Familia Martínez"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Sarmiento Gonzalez"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
     <s v="Familia Trombeta"/>
-    <m/>
+    <x v="0"/>
     <n v="6"/>
     <n v="3"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <x v="4"/>
+    <s v="Iglesia"/>
     <s v="Maykel"/>
-    <m/>
+    <x v="0"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <x v="2"/>
-    <s v="Srtas.Ana Paola,  María Lucía y Sherlyin"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Tia Mabys e hijas (tía Mabis)"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Victor Colona (tio)"/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="2"/>
-    <s v="Familia Calvo"/>
-    <m/>
+    <s v="Iglesia"/>
+    <s v="Familia Gonzalez de Leon "/>
+    <x v="3"/>
     <n v="4"/>
     <n v="4"/>
   </r>
   <r>
-    <s v="HECHO"/>
-    <x v="1"/>
-    <s v="Familia Custodio Barranco"/>
-    <m/>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Gonzalez Ulate"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="4"/>
   </r>
   <r>
-    <s v="HECHO"/>
-    <x v="0"/>
-    <s v="Familia Girón Camargo (tio jimmy)"/>
-    <m/>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Montes Sarmiento "/>
+    <x v="3"/>
     <n v="4"/>
     <n v="4"/>
   </r>
   <r>
-    <s v="HECHO"/>
-    <x v="0"/>
-    <s v="Familia Girón Perez (tíó aly)"/>
-    <m/>
-    <n v="4"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Gonzalez de Leon "/>
-    <m/>
-    <n v="4"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Gonzalez Ulate"/>
-    <m/>
-    <n v="4"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Montes Sarmiento "/>
-    <m/>
-    <n v="4"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="1"/>
-    <s v="Familia Castillo Custodio"/>
-    <m/>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <s v="Familia Ruiz Cruz"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
   </r>
   <r>
-    <s v="HECHO"/>
-    <x v="0"/>
-    <s v="Familia Escala Girón (tía Nuria)"/>
-    <m/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Familia Girón Colona(papás)"/>
-    <m/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Familia Girón Mendoza (tío Julio)"/>
-    <m/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
-    <s v="Familia Ruiz Cruz"/>
-    <m/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="1"/>
-    <s v="Raul Custodio"/>
-    <m/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="0"/>
-    <s v="Familia Colona Rodriguez"/>
-    <m/>
-    <n v="6"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="1"/>
-    <s v="Familia Cedeño Alvarado"/>
-    <m/>
-    <n v="3"/>
-    <m/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
     <s v="Familia Gonzalez"/>
-    <m/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="1"/>
-    <s v="Familia Leiva Cedeño"/>
-    <m/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="4"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
     <s v="Familia Reyes"/>
-    <m/>
-    <n v="2"/>
-    <m/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <x v="4"/>
-    <s v="Sra. Rufina"/>
-    <m/>
-    <n v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <x v="1"/>
-    <s v="Tío Manuel y Prima Zulay"/>
-    <m/>
-    <n v="2"/>
-    <m/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Invitaciones de la boda" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G6:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="G6:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="3"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" numFmtId="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -1389,26 +1373,14 @@
     <i>
       <x v="3"/>
     </i>
-    <i>
-      <x v="4"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Suma de Puestos" fld="4" baseField="0" baseItem="0"/>
+  <dataFields count="1">
     <dataField name="Suma de Confirmados" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -1702,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1689,7 @@
     <col min="5" max="5" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" customWidth="1"/>
@@ -1732,7 +1704,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1749,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1758,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1770,13 +1742,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="13">
         <v>0</v>
@@ -1788,34 +1760,34 @@
         <v>35</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E5" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1825,17 +1797,20 @@
       <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>72</v>
+      <c r="C6" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E6" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1843,76 +1818,73 @@
         <v>35</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="10">
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>4</v>
       </c>
       <c r="H8" s="10">
-        <v>24</v>
-      </c>
-      <c r="I8" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7">
         <v>2</v>
       </c>
       <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>5</v>
       </c>
       <c r="H9" s="10">
-        <v>14</v>
-      </c>
-      <c r="I9" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1921,25 +1893,22 @@
         <v>35</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
       </c>
       <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="G10" s="11">
+        <v>6</v>
       </c>
       <c r="H10" s="10">
-        <v>38</v>
-      </c>
-      <c r="I10" s="10">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1947,51 +1916,39 @@
         <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="E11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H11" s="10">
-        <v>51</v>
-      </c>
-      <c r="I11" s="10">
-        <v>51</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="10">
-        <v>86</v>
-      </c>
-      <c r="I12" s="10">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1999,42 +1956,39 @@
         <v>35</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
       </c>
       <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="10">
-        <v>213</v>
-      </c>
-      <c r="I13" s="10">
-        <v>182</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4</v>
       </c>
       <c r="F14" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2042,16 +1996,16 @@
         <v>35</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2062,26 +2016,29 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="7">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="13">
@@ -2093,13 +2050,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
       </c>
       <c r="E18" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -2113,7 +2073,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -2127,12 +2090,15 @@
         <v>35</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6">
         <v>1</v>
       </c>
       <c r="F20" s="13">
@@ -2144,10 +2110,13 @@
         <v>35</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -2161,10 +2130,13 @@
         <v>35</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -2175,67 +2147,73 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
       </c>
       <c r="E23" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
       </c>
       <c r="E24" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E25" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
@@ -2243,36 +2221,36 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E28" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2280,33 +2258,33 @@
         <v>35</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="E29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2314,16 +2292,16 @@
         <v>35</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>84</v>
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
       </c>
       <c r="E31" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2331,33 +2309,33 @@
         <v>35</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>92</v>
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
       </c>
       <c r="E32" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
       </c>
       <c r="E33" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,33 +2343,33 @@
         <v>35</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E34" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F34" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E35" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2402,13 +2380,13 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E36" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2416,10 +2394,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E37" s="6">
         <v>2</v>
@@ -2430,13 +2408,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E38" s="6">
         <v>2</v>
@@ -2450,33 +2428,33 @@
         <v>35</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="8">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
       </c>
       <c r="F39" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E40" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2484,29 +2462,29 @@
         <v>35</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E41" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="8">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="6">
         <v>2</v>
       </c>
       <c r="F42" s="13">
@@ -2515,15 +2493,15 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="7">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="6">
         <v>2</v>
       </c>
       <c r="F43" s="13">
@@ -2532,13 +2510,13 @@
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E44" s="6">
         <v>2</v>
@@ -2549,13 +2527,13 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E45" s="6">
         <v>2</v>
@@ -2566,13 +2544,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="E46" s="6">
         <v>2</v>
@@ -2583,53 +2561,53 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E47" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E48" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E49" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2637,67 +2615,67 @@
         <v>35</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E50" s="6">
         <v>3</v>
       </c>
       <c r="F50" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E51" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E52" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
       </c>
       <c r="E53" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F53" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2705,16 +2683,16 @@
         <v>35</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E54" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F54" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2722,33 +2700,33 @@
         <v>35</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E55" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F55" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E56" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F56" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2759,30 +2737,30 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E57" s="6">
         <v>2</v>
       </c>
       <c r="F57" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E58" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2790,67 +2768,67 @@
         <v>35</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>91</v>
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
       </c>
       <c r="E59" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E60" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="6">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1</v>
       </c>
       <c r="F61" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="6">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1</v>
       </c>
       <c r="F62" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2858,16 +2836,16 @@
         <v>35</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E63" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2875,67 +2853,67 @@
         <v>35</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E64" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E65" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E66" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E67" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2946,13 +2924,13 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E68" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2963,13 +2941,13 @@
         <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E69" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2980,13 +2958,13 @@
         <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E70" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2996,48 +2974,48 @@
       <c r="B71" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C71" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71" s="6">
+      <c r="C71" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="8">
         <v>3</v>
       </c>
       <c r="F71" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E72" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F72" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C73" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="6">
-        <v>3</v>
+      <c r="C73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="8">
+        <v>2</v>
       </c>
       <c r="F73" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3045,16 +3023,16 @@
         <v>35</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E74" s="8">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="6">
+        <v>2</v>
       </c>
       <c r="F74" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3062,16 +3040,16 @@
         <v>35</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="E75" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3079,101 +3057,101 @@
         <v>35</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E76" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="7">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="6">
+        <v>3</v>
       </c>
       <c r="F77" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E78" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E79" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F79" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="E80" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E81" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3184,30 +3162,33 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E82" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>93</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
       </c>
       <c r="E83" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,33 +3196,33 @@
         <v>35</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E84" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F84" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E85" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F85" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3249,16 +3230,16 @@
         <v>35</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E86" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F86" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3266,16 +3247,16 @@
         <v>35</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="E87" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F87" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3286,30 +3267,30 @@
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E88" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E89" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F89" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3317,16 +3298,19 @@
         <v>35</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
       </c>
       <c r="E90" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F90" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3334,15 +3318,17 @@
         <v>35</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E91" s="6">
-        <v>3</v>
-      </c>
-      <c r="F91" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="F91" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -3352,27 +3338,34 @@
         <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
       </c>
       <c r="E92" s="6">
-        <v>2</v>
-      </c>
-      <c r="F92" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="F92" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>35</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E93" s="6">
-        <v>2</v>
-      </c>
-      <c r="F93" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="F93" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3382,47 +3375,36 @@
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E94" s="6">
         <v>2</v>
       </c>
-      <c r="F94" s="13"/>
+      <c r="F94" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E95" s="6">
-        <v>1</v>
-      </c>
-      <c r="F95" s="13"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>35</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" t="s">
-        <v>89</v>
-      </c>
-      <c r="E96" s="6">
-        <v>2</v>
-      </c>
-      <c r="F96" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="F95" s="13">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F96">
-    <sortState ref="A3:F96">
-      <sortCondition ref="F2:F96"/>
+  <autoFilter ref="A2:F95">
+    <sortState ref="A3:F95">
+      <sortCondition ref="B2:B95"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
@@ -3460,7 +3442,7 @@
       <c r="A2" s="22"/>
       <c r="B2" s="19"/>
       <c r="C2" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="2"/>
@@ -3470,147 +3452,147 @@
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="15"/>
       <c r="C6" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="15"/>
       <c r="C9" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="15"/>
       <c r="C12" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="15"/>
       <c r="C18" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" s="15"/>
       <c r="C21" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="15"/>
       <c r="C24" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Invitados de boda ultimo.xlsx
+++ b/Invitados de boda ultimo.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3990"/>
+    <workbookView xWindow="9840" yWindow="0" windowWidth="10680" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA TOTAL" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LISTA TOTAL'!$A$2:$F$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LISTA TOTAL'!$A$2:$F$101</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="138">
   <si>
     <t>Categoría</t>
   </si>
@@ -430,17 +425,23 @@
     <t>LISTA DE TARJETAS DE LA BODA</t>
   </si>
   <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
     <t>(en blanco)</t>
+  </si>
+  <si>
+    <t>Rótulos de fila</t>
+  </si>
+  <si>
+    <t>Jason Godard</t>
+  </si>
+  <si>
+    <t>Liliana Solis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,6 +535,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,30 +556,141 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="HP" refreshedDate="43144.841111226851" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="93">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jorge Girón" refreshedDate="43146.370973726851" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="99">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:F95" sheet="LISTA TOTAL"/>
+    <worksheetSource ref="A2:F101" sheet="LISTA TOTAL"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Estado" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Categoría" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Tarjetas" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="95">
+        <s v="Familia Calvo"/>
+        <s v="Familia Castillo"/>
+        <s v="Familia Cedeño Cussati"/>
+        <s v="Familia Llerena Barcena"/>
+        <s v="Familia Quiros"/>
+        <s v="Familia Ramos"/>
+        <s v="Jessica Dean"/>
+        <s v="Srta. Celideth Ramires"/>
+        <s v="Srta. Jidarky Arias"/>
+        <s v="Srtas.Ana Paola,  María Lucía y Sherlyin"/>
+        <s v="Xiomara Dominguez"/>
+        <s v="Yorlenis Sanjur"/>
+        <s v="Amarilis Arrollo"/>
+        <s v="Aylin Zerna"/>
+        <s v="Erick Gonzalez"/>
+        <s v="Fernando Castillo"/>
+        <s v="Gustavo Rueda"/>
+        <s v="Janeth Rojas"/>
+        <s v="Javier Llinares"/>
+        <s v="Lilia Osorio"/>
+        <s v="Shamir Parquer"/>
+        <s v="Yirelki Jimenez"/>
+        <s v="Abuelitos Custodio Cedeño"/>
+        <s v="Abuelitos Sambula Aguilar"/>
+        <s v="Dery"/>
+        <s v="Familia Castillo Custodio"/>
+        <s v="Familia Cedeño Alvarado"/>
+        <s v="Familia Custodio Barranco"/>
+        <s v="Familia Galeano"/>
+        <s v="Familia Leiva Cedeño"/>
+        <s v="Kevin Sambulá"/>
+        <s v="Neidy Sambulá"/>
+        <s v="Raul Custodio"/>
+        <s v="Tío Carlos y Primo Carlos Daniel"/>
+        <s v="Tío David y Esposa"/>
+        <s v="Tío Manuel y Prima Zulay"/>
+        <s v="Abuelitos Girón Bosquez"/>
+        <s v="Argelis Colona"/>
+        <s v="Diana Colona"/>
+        <s v="Familia Adang Girón"/>
+        <s v="Familia Bosa Pereira"/>
+        <s v="Familia Colona Rodriguez"/>
+        <s v="Familia Escala Girón (tía Nuria)"/>
+        <s v="Familia Girón Camargo (tio jimmy)"/>
+        <s v="Familia Girón Campos (tío Javier)"/>
+        <s v="Familia Girón Colona(papás)"/>
+        <s v="Familia Girón Mendoza (tío Julio)"/>
+        <s v="Familia Girón Montes (tio tedy)"/>
+        <s v="Familia Girón Perez (tíó aly)"/>
+        <s v="Familia Montenegro Girón"/>
+        <s v="Itzel Colona"/>
+        <s v="Tia Mabys e hijas (tía Mabis)"/>
+        <s v="Victor Colona"/>
+        <s v="Victor Colona (tio)"/>
+        <s v="Alimariel Fuentes"/>
+        <s v="Andy y Marlon Asprilla"/>
+        <s v="Angel Smith"/>
+        <s v="Carolina Ma Li"/>
+        <s v="Daniel Tejada"/>
+        <s v="Elvis Cordoba y Anair Joao"/>
+        <s v="Estefany Ruiz"/>
+        <s v="Familia Chavez"/>
+        <s v="Familia Chavez Cornejo"/>
+        <s v="Familia Clark"/>
+        <s v="Familia Gonzalez"/>
+        <s v="Familia Gonzalez de Leon "/>
+        <s v="Familia Gonzalez Molina"/>
+        <s v="Familia Gonzalez Ulate"/>
+        <s v="Familia Lozano "/>
+        <s v="Familia Martínez"/>
+        <s v="Familia Montes Sarmiento "/>
+        <s v="Familia Nuñez"/>
+        <s v="Familia Otero "/>
+        <s v="Familia Petana"/>
+        <s v="Familia Reyes"/>
+        <s v="Familia Robles"/>
+        <s v="Familia Ruiz Cruz"/>
+        <s v="Familia Russo"/>
+        <s v="Familia Salazar"/>
+        <s v="Familia Sarmiento Gonzalez"/>
+        <s v="Familia Trombeta"/>
+        <s v="Freddy"/>
+        <s v="Jason Godard"/>
+        <s v="José Arturo Bonilla"/>
+        <s v="Juan Carlos Soto"/>
+        <s v="Juan Pablo Doble"/>
+        <s v="Kevin Contreras"/>
+        <s v="Liliana Solis"/>
+        <s v="Lourdes y Obed"/>
+        <s v="Martin Ibarra"/>
+        <s v="Maykel"/>
+        <s v="Sra. Delma de Sween"/>
+        <s v="Sra. Elba Atencio"/>
+        <s v="Sra. Ivonne Joseph"/>
+        <s v="Srta. Manyani Quintero y Jose Gómez"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Mesa" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="6" count="4">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="20" count="19">
+        <n v="6"/>
+        <n v="11"/>
         <m/>
-        <n v="6"/>
         <n v="5"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="7"/>
+        <n v="13"/>
+        <n v="8"/>
+        <n v="12"/>
+        <n v="9"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="14"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="15"/>
         <n v="4"/>
+        <n v="18"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Puestos" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
     <cacheField name="Confirmados" numFmtId="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
@@ -590,748 +705,796 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="93">
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novia"/>
-    <s v="Familia Llerena Barcena"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novia"/>
-    <s v="Familia Cedeño Cussati"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novia"/>
-    <s v="Srta. Celideth Ramires"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novia"/>
-    <s v="Srta. Jidarky Arias"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novia"/>
-    <s v="Xiomara Dominguez"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="99">
   <r>
     <s v="HECHO"/>
     <s v="Amistad Novia"/>
-    <s v="Yorlenis Sanjur"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Amistad Novia"/>
-    <s v="Familia Castillo"/>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novia"/>
-    <s v="Familia Quiros"/>
     <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novia"/>
-    <s v="Familia Ramos"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novia"/>
-    <s v="Jessica Dean"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novia"/>
-    <s v="Srtas.Ana Paola,  María Lucía y Sherlyin"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Amistad Novia"/>
-    <s v="Familia Calvo"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novio"/>
-    <s v="Gustavo Rueda"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novio"/>
-    <s v="Javier Llinares"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novio"/>
-    <s v="Amarilis Arrollo"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novio"/>
-    <s v="Aylin Zerna"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novio"/>
-    <s v="Erick Gonzalez"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novio"/>
-    <s v="Fernando Castillo"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novio"/>
-    <s v="Lilia Osorio"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novio"/>
-    <s v="Yirelki Jimenez"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novio"/>
-    <s v="Janeth Rojas"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Amistad Novio"/>
-    <s v="Shamir Parquer"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Familia Novia"/>
-    <s v="Familia Galeano"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Familia Novia"/>
-    <s v="Kevin Sambulá"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Familia Novia"/>
-    <s v="Abuelitos Custodio Cedeño"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Familia Novia"/>
-    <s v="Abuelitos Sambula Aguilar"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Familia Novia"/>
-    <s v="Dery"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Familia Novia"/>
-    <s v="Neidy Sambulá"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Familia Novia"/>
-    <s v="Tío Carlos y Primo Carlos Daniel"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Familia Novia"/>
-    <s v="Tío David y Esposa"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Familia Novia"/>
-    <s v="Familia Custodio Barranco"/>
     <x v="0"/>
     <n v="4"/>
     <n v="4"/>
   </r>
   <r>
-    <s v="ENTREGADO"/>
-    <s v="Familia Novia"/>
-    <s v="Familia Castillo Custodio"/>
+    <s v="HECHO"/>
+    <s v="Amistad Novia"/>
+    <x v="1"/>
     <x v="0"/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Familia Novia"/>
-    <s v="Raul Custodio"/>
-    <x v="0"/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Familia Novia"/>
-    <s v="Familia Cedeño Alvarado"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <x v="9"/>
     <x v="0"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
+    <s v="Amistad Novia"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Amistad Novia"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <x v="14"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <x v="15"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <x v="17"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <x v="19"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <x v="20"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Amistad Novio"/>
+    <x v="21"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
     <s v="Familia Novia"/>
-    <s v="Familia Leiva Cedeño"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
     <s v="Familia Novia"/>
-    <s v="Tío Manuel y Prima Zulay"/>
-    <x v="0"/>
+    <x v="23"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <x v="27"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <x v="27"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <x v="32"/>
+    <x v="5"/>
+    <n v="5"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novia"/>
+    <x v="32"/>
+    <x v="5"/>
+    <n v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <x v="33"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <x v="34"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novia"/>
+    <x v="35"/>
+    <x v="2"/>
     <n v="2"/>
     <n v="2"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
     <s v="Familia Novio"/>
-    <s v="Diana Colona"/>
-    <x v="0"/>
+    <x v="36"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
+    <x v="37"/>
+    <x v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
+    <x v="38"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
     <s v="Familia Novio"/>
-    <s v="Familia Adang Girón"/>
-    <x v="0"/>
+    <x v="39"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <s v="ENTREGADO"/>
+    <s v="HECHO"/>
     <s v="Familia Novio"/>
-    <s v="Itzel Colona"/>
-    <x v="0"/>
+    <x v="40"/>
+    <x v="7"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
+    <x v="41"/>
+    <x v="8"/>
+    <n v="6"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novio"/>
+    <x v="42"/>
+    <x v="7"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novio"/>
+    <x v="43"/>
+    <x v="9"/>
+    <n v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novio"/>
+    <x v="44"/>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
+    <x v="45"/>
+    <x v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
+    <x v="46"/>
+    <x v="10"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novio"/>
+    <x v="47"/>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Familia Novio"/>
+    <x v="48"/>
+    <x v="9"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Pendiente hacer"/>
+    <s v="Familia Novio"/>
+    <x v="49"/>
+    <x v="9"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
+    <x v="50"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
     <s v="Familia Novio"/>
-    <s v="Abuelitos Girón Bosquez"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Familia Novio"/>
-    <s v="Familia Girón Campos (tío Javier)"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Familia Novio"/>
-    <s v="Familia Girón Montes (tio tedy)"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="Pendiente hacer"/>
-    <s v="Familia Novio"/>
-    <s v="Familia Montenegro Girón"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Familia Novio"/>
-    <s v="Victor Colona"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Familia Novio"/>
-    <s v="Argelis Colona"/>
-    <x v="0"/>
+    <x v="51"/>
+    <x v="6"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <s v="HECHO"/>
+    <s v="ENTREGADO"/>
     <s v="Familia Novio"/>
-    <s v="Familia Bosa Pereira"/>
-    <x v="0"/>
+    <x v="52"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Familia Novio"/>
+    <x v="53"/>
+    <x v="8"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <s v="Familia Novio"/>
-    <s v="Tia Mabys e hijas (tía Mabis)"/>
-    <x v="0"/>
+    <s v="Iglesia"/>
+    <x v="54"/>
+    <x v="11"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <x v="55"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <x v="56"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="57"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="58"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <x v="59"/>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HECHO"/>
+    <s v="Iglesia"/>
+    <x v="60"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="61"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="62"/>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="63"/>
+    <x v="15"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
-    <s v="Familia Novio"/>
-    <s v="Victor Colona (tio)"/>
-    <x v="0"/>
+    <s v="Iglesia"/>
+    <x v="64"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="65"/>
+    <x v="17"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="66"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="67"/>
+    <x v="14"/>
+    <n v="4"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="68"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="68"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="69"/>
+    <x v="16"/>
     <n v="3"/>
     <n v="3"/>
   </r>
   <r>
-    <s v="HECHO"/>
-    <s v="Familia Novio"/>
-    <s v="Familia Girón Camargo (tio jimmy)"/>
-    <x v="0"/>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="70"/>
+    <x v="17"/>
     <n v="4"/>
     <n v="4"/>
   </r>
   <r>
-    <s v="HECHO"/>
-    <s v="Familia Novio"/>
-    <s v="Familia Girón Perez (tíó aly)"/>
-    <x v="0"/>
-    <n v="4"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Familia Novio"/>
-    <s v="Familia Escala Girón (tía Nuria)"/>
-    <x v="0"/>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="71"/>
+    <x v="11"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="72"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="73"/>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="74"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="75"/>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="76"/>
+    <x v="18"/>
     <n v="5"/>
     <n v="5"/>
   </r>
   <r>
-    <s v="ENTREGADO"/>
-    <s v="Familia Novio"/>
-    <s v="Familia Girón Colona(papás)"/>
-    <x v="0"/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Familia Novio"/>
-    <s v="Familia Girón Mendoza (tío Julio)"/>
-    <x v="0"/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Familia Novio"/>
-    <s v="Familia Colona Rodriguez"/>
-    <x v="0"/>
-    <n v="6"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Lourdes y Obed"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
     <s v="HECHO"/>
     <s v="Iglesia"/>
-    <s v="Angel Smith"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="77"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="2"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
     <s v="Iglesia"/>
-    <s v="Carolina Ma Li"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="78"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="2"/>
   </r>
   <r>
     <s v="ENTREGADO"/>
     <s v="Iglesia"/>
-    <s v="Daniel Tejada"/>
-    <x v="0"/>
+    <x v="79"/>
+    <x v="11"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="80"/>
+    <x v="14"/>
+    <n v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="81"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Iglesia"/>
+    <x v="82"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="83"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="84"/>
+    <x v="16"/>
     <n v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="HECHO"/>
     <s v="Iglesia"/>
-    <s v="Estefany Ruiz"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Freddy"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="José Arturo Bonilla"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Juan Carlos Soto"/>
-    <x v="0"/>
+    <x v="85"/>
+    <x v="12"/>
     <n v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="HECHO"/>
     <s v="Iglesia"/>
-    <s v="Juan Pablo Doble"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="86"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Iglesia"/>
+    <x v="87"/>
+    <x v="2"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="88"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="HECHO"/>
     <s v="Iglesia"/>
-    <s v="Kevin Contreras"/>
-    <x v="0"/>
+    <x v="89"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="90"/>
+    <x v="12"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="91"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="92"/>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ENTREGADO"/>
+    <s v="Iglesia"/>
+    <x v="93"/>
+    <x v="15"/>
     <n v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="HECHO"/>
     <s v="Iglesia"/>
-    <s v="Martin Ibarra"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Sra. Delma de Sween"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Sra. Elba Atencio"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Sra. Ivonne Joseph"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Alimariel Fuentes"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Iglesia"/>
-    <s v="Andy y Marlon Asprilla"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Iglesia"/>
-    <s v="Elvis Cordoba y Anair Joao"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Chavez"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Chavez Cornejo"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Gonzalez Molina"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Nuñez"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Otero "/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Petana"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Robles"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Russo"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Salazar"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="HECHO"/>
-    <s v="Iglesia"/>
-    <s v="Srta. Manyani Quintero y Jose Gómez"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Clark"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Lozano "/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Martínez"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Sarmiento Gonzalez"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Trombeta"/>
-    <x v="0"/>
-    <n v="6"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Maykel"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Gonzalez de Leon "/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Gonzalez Ulate"/>
-    <x v="0"/>
-    <n v="4"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Montes Sarmiento "/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Ruiz Cruz"/>
-    <x v="0"/>
-    <n v="5"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Gonzalez"/>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <s v="ENTREGADO"/>
-    <s v="Iglesia"/>
-    <s v="Familia Reyes"/>
-    <x v="0"/>
+    <x v="94"/>
+    <x v="17"/>
     <n v="2"/>
     <n v="2"/>
   </r>
@@ -1339,28 +1502,143 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Invitaciones de la boda" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G6:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Invitaciones de la boda" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G6:H26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="5">
+      <items count="96">
+        <item x="22"/>
+        <item x="36"/>
+        <item x="23"/>
+        <item x="54"/>
+        <item x="12"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="24"/>
+        <item x="38"/>
+        <item x="59"/>
+        <item x="14"/>
+        <item x="60"/>
+        <item x="39"/>
+        <item x="40"/>
         <item x="0"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="2"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="42"/>
+        <item x="28"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="29"/>
         <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="49"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="15"/>
+        <item x="81"/>
+        <item x="16"/>
+        <item x="50"/>
+        <item x="17"/>
+        <item x="82"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="30"/>
+        <item x="19"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="20"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="94"/>
+        <item x="9"/>
+        <item x="51"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="10"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="87"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="20">
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="3"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="20">
     <i>
       <x/>
     </i>
@@ -1372,6 +1650,51 @@
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
     </i>
     <i t="grand">
       <x/>
@@ -1430,7 +1753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1462,10 +1785,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1497,7 +1819,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1673,22 +1994,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="18.140625" style="15" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -1702,18 +2023,18 @@
     <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -1729,7 +2050,7 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="23" t="s">
         <v>108</v>
       </c>
       <c r="H2"/>
@@ -1737,43 +2058,49 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="6">
-        <v>3</v>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4</v>
       </c>
       <c r="F3" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7">
         <v>2</v>
       </c>
       <c r="F4" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1781,24 +2108,30 @@
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
       </c>
       <c r="F5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>92</v>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -1807,88 +2140,91 @@
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>79</v>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
       </c>
       <c r="E7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>135</v>
+      <c r="G7" s="11">
+        <v>1</v>
       </c>
       <c r="H7" s="10">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
+      <c r="C9" t="s">
+        <v>94</v>
       </c>
       <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="7">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
         <v>2</v>
       </c>
       <c r="F9" s="13">
         <v>2</v>
       </c>
       <c r="G9" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1896,7 +2232,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>91</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -1905,36 +2244,39 @@
         <v>2</v>
       </c>
       <c r="G10" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>94</v>
+      <c r="C11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
       </c>
       <c r="E11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="13">
-        <v>2</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>6</v>
       </c>
       <c r="H11" s="10">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1942,16 +2284,25 @@
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
       </c>
       <c r="E12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>7</v>
+      </c>
+      <c r="H12" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1959,39 +2310,48 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
       </c>
       <c r="F13" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>8</v>
+      </c>
+      <c r="H13" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4</v>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
       </c>
       <c r="F14" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>9</v>
+      </c>
+      <c r="H14" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1999,16 +2359,25 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
       </c>
       <c r="E15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>11</v>
+      </c>
+      <c r="H15" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2016,16 +2385,25 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
       </c>
       <c r="E16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2033,7 +2411,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -2044,8 +2422,14 @@
       <c r="F17" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="11">
+        <v>13</v>
+      </c>
+      <c r="H17" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2053,7 +2437,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2064,8 +2448,14 @@
       <c r="F18" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="11">
+        <v>14</v>
+      </c>
+      <c r="H18" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2073,19 +2463,25 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G19" s="11">
+        <v>15</v>
+      </c>
+      <c r="H19" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2093,7 +2489,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -2104,8 +2500,14 @@
       <c r="F20" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="11">
+        <v>16</v>
+      </c>
+      <c r="H20" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2113,19 +2515,25 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G21" s="11">
+        <v>17</v>
+      </c>
+      <c r="H21" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2144,8 +2552,14 @@
       <c r="F22" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="11">
+        <v>18</v>
+      </c>
+      <c r="H22" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2153,19 +2567,22 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
       </c>
       <c r="F23" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>19</v>
+      </c>
+      <c r="H23" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2173,19 +2590,22 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E24" s="6">
         <v>2</v>
       </c>
       <c r="F24" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>20</v>
+      </c>
+      <c r="H24" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -2193,16 +2613,25 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>82</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2210,33 +2639,45 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="10">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -2244,33 +2685,39 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28" s="6">
         <v>2</v>
       </c>
       <c r="F28" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
       </c>
       <c r="F29" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -2278,33 +2725,39 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
       </c>
       <c r="E30" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F30" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
       </c>
       <c r="E31" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F31" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2312,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E32" s="6">
         <v>2</v>
@@ -2321,24 +2774,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E33" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2355,41 +2808,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E35" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" s="6">
         <v>3</v>
       </c>
       <c r="F36" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2406,75 +2859,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2</v>
+      </c>
+      <c r="F39" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="6">
-        <v>2</v>
-      </c>
-      <c r="F38" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
       <c r="E41" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2482,24 +2935,30 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>102</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
       </c>
       <c r="E42" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F42" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
@@ -2508,41 +2967,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
       </c>
       <c r="E44" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>103</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
       </c>
       <c r="E45" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -2552,6 +3017,9 @@
       <c r="C46" t="s">
         <v>13</v>
       </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
       <c r="E46" s="6">
         <v>2</v>
       </c>
@@ -2559,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2567,24 +3035,30 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47">
         <v>8</v>
       </c>
       <c r="E47" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F47" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
       </c>
       <c r="E48" s="6">
         <v>3</v>
@@ -2593,24 +3067,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
       </c>
       <c r="E49" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -2618,16 +3095,19 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>101</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
       </c>
       <c r="E50" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F50" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -2635,16 +3115,19 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
       </c>
       <c r="E51" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -2652,16 +3135,19 @@
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
       </c>
       <c r="E52" s="6">
         <v>4</v>
       </c>
       <c r="F52" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -2669,118 +3155,130 @@
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
       </c>
       <c r="E53" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
       </c>
       <c r="E54" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F54" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>76</v>
+      </c>
+      <c r="D55">
+        <v>13</v>
       </c>
       <c r="E55" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F55" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>97</v>
+      </c>
+      <c r="D56">
+        <v>13</v>
       </c>
       <c r="E56" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E57" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E58" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
       <c r="A59" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E59" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -2788,33 +3286,39 @@
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
       </c>
       <c r="E60" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="7">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" s="6">
+        <v>4</v>
       </c>
       <c r="F61" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2822,33 +3326,39 @@
         <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="7">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" s="6">
+        <v>4</v>
       </c>
       <c r="F62" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>93</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
       </c>
       <c r="E63" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -2856,7 +3366,10 @@
         <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>14</v>
       </c>
       <c r="E64" s="6">
         <v>1</v>
@@ -2865,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -2873,50 +3386,59 @@
         <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65" s="6">
+        <v>69</v>
+      </c>
+      <c r="D65">
+        <v>14</v>
+      </c>
+      <c r="E65" s="7">
         <v>1</v>
       </c>
       <c r="F65" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>14</v>
       </c>
       <c r="E66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D67">
+        <v>14</v>
       </c>
       <c r="E67" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -2924,16 +3446,19 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>63</v>
+      </c>
+      <c r="D68">
+        <v>15</v>
       </c>
       <c r="E68" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" customHeight="1">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -2941,101 +3466,119 @@
         <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
       </c>
       <c r="E69" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="D70">
+        <v>15</v>
       </c>
       <c r="E70" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>35</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" s="8">
-        <v>3</v>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1</v>
       </c>
       <c r="F71" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" customHeight="1">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>28</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
       </c>
       <c r="E72" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" customHeight="1">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="8">
-        <v>2</v>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
       </c>
       <c r="F73" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1">
       <c r="A74" t="s">
         <v>35</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C74" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="6">
-        <v>2</v>
+      <c r="C74" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74">
+        <v>16</v>
+      </c>
+      <c r="E74" s="8">
+        <v>3</v>
       </c>
       <c r="F74" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -3043,16 +3586,19 @@
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>61</v>
+        <v>27</v>
+      </c>
+      <c r="D75">
+        <v>16</v>
       </c>
       <c r="E75" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -3060,16 +3606,19 @@
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="D76">
+        <v>16</v>
       </c>
       <c r="E76" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -3077,33 +3626,36 @@
         <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="D77">
+        <v>16</v>
       </c>
       <c r="E77" s="6">
         <v>3</v>
       </c>
       <c r="F77" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="B78" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>66</v>
+        <v>136</v>
+      </c>
+      <c r="D78">
+        <v>16</v>
       </c>
       <c r="E78" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -3111,24 +3663,30 @@
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="D79">
+        <v>16</v>
       </c>
       <c r="E79" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>68</v>
+        <v>105</v>
+      </c>
+      <c r="D80">
+        <v>17</v>
       </c>
       <c r="E80" s="6">
         <v>2</v>
@@ -3137,7 +3695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" customHeight="1">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -3145,33 +3703,39 @@
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>26</v>
+      </c>
+      <c r="D81">
+        <v>17</v>
       </c>
       <c r="E81" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C82" t="s">
-        <v>60</v>
-      </c>
-      <c r="E82" s="6">
+      <c r="C82" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82">
+        <v>17</v>
+      </c>
+      <c r="E82" s="8">
         <v>2</v>
       </c>
       <c r="F82" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -3179,36 +3743,39 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E83" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="D84">
+        <v>17</v>
       </c>
       <c r="E84" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -3216,7 +3783,10 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="D85">
+        <v>17</v>
       </c>
       <c r="E85" s="6">
         <v>3</v>
@@ -3225,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>35</v>
       </c>
@@ -3233,16 +3803,19 @@
         <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="D86">
+        <v>18</v>
       </c>
       <c r="E86" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>35</v>
       </c>
@@ -3250,16 +3823,19 @@
         <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="D87">
+        <v>18</v>
       </c>
       <c r="E87" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -3267,33 +3843,39 @@
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D88">
+        <v>18</v>
       </c>
       <c r="E88" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="D89">
+        <v>18</v>
       </c>
       <c r="E89" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F89" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -3301,19 +3883,19 @@
         <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E90" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F90" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -3323,6 +3905,9 @@
       <c r="C91" t="s">
         <v>54</v>
       </c>
+      <c r="D91">
+        <v>19</v>
+      </c>
       <c r="E91" s="6">
         <v>4</v>
       </c>
@@ -3330,7 +3915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -3338,19 +3923,19 @@
         <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E92" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F92" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>35</v>
       </c>
@@ -3358,16 +3943,19 @@
         <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="D93">
+        <v>19</v>
       </c>
       <c r="E93" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F93" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -3375,7 +3963,10 @@
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
       </c>
       <c r="E94" s="6">
         <v>2</v>
@@ -3384,7 +3975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -3392,19 +3983,127 @@
         <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
       </c>
       <c r="E95" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96" s="6">
+        <v>2</v>
+      </c>
+      <c r="F96" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97" s="6">
+        <v>2</v>
+      </c>
+      <c r="F97" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>57</v>
+      </c>
+      <c r="E99" s="6">
+        <v>3</v>
+      </c>
+      <c r="F99" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="B100" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="6">
+        <v>2</v>
+      </c>
+      <c r="F101" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F95">
-    <sortState ref="A3:F95">
-      <sortCondition ref="B2:B95"/>
+  <autoFilter ref="A2:F101">
+    <sortState ref="A3:F101">
+      <sortCondition ref="B2:B101"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
@@ -3416,21 +4115,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" s="1"/>
@@ -3438,7 +4137,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="22"/>
       <c r="B2" s="19"/>
       <c r="C2" s="16" t="s">
@@ -3449,568 +4148,568 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1">
       <c r="B3" s="15"/>
       <c r="C3" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B4" s="15"/>
       <c r="C4" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B5" s="15"/>
       <c r="C5" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A6"/>
       <c r="B6" s="15"/>
       <c r="C6" s="18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B7" s="15"/>
       <c r="C7" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="15"/>
       <c r="C8" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A9"/>
       <c r="B9" s="15"/>
       <c r="C9" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B10" s="15"/>
       <c r="C10" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="15"/>
       <c r="C11" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A12"/>
       <c r="B12" s="15"/>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B13" s="15"/>
       <c r="C13" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="15"/>
       <c r="C14" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B16" s="15"/>
       <c r="C16" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B17" s="15"/>
       <c r="C17" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A18"/>
       <c r="B18" s="15"/>
       <c r="C18" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="15"/>
       <c r="C19" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="15"/>
       <c r="C20" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A21"/>
       <c r="B21" s="15"/>
       <c r="C21" s="18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B22" s="15"/>
       <c r="C22" s="18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="15"/>
       <c r="C23" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A24"/>
       <c r="B24" s="15"/>
       <c r="C24" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="15"/>
       <c r="C25" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="15"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="B27" s="15"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="17"/>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="17"/>
       <c r="B29" s="15"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="B30" s="15"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="17"/>
       <c r="B31" s="15"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="17"/>
       <c r="B32" s="15"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="B33" s="15"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="17"/>
       <c r="B34" s="15"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="17"/>
       <c r="B35" s="15"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="B36" s="15"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="17"/>
       <c r="B37" s="15"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="17"/>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="B39" s="15"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="17"/>
       <c r="B40" s="15"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="17"/>
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="B42" s="15"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="17"/>
       <c r="B43" s="15"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="17"/>
       <c r="B44" s="15"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="B45" s="15"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="17"/>
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="17"/>
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="17"/>
       <c r="B49" s="15"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="17"/>
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="B51" s="15"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="17"/>
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="17"/>
       <c r="B53" s="15"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="17"/>
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="17"/>
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="17"/>
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="17"/>
       <c r="B59" s="15"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="17"/>
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="17"/>
       <c r="B62" s="15"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="B63" s="15"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="17"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="17"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="17"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="17"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="17"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="17"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="17"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" s="17"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="17"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="17"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="17"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" s="17"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="17"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="17"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="17"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="17"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" s="17"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" s="17"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" s="17"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" s="17"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" s="17"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" s="17"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" s="17"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" s="17"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" s="17"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" s="17"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" s="17"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" s="17"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" s="17"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" s="17"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" s="17"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" s="17"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" s="17"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113" s="17"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" s="17"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" s="17"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" s="17"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119" s="17"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" s="17"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" s="17"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124" s="17"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125" s="17"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" s="17"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128" s="17"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="17"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="17"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="17"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="17"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="17"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="17"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="17"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="17"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" s="17"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143" s="17"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="17"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" s="17"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="17"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" s="17"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" s="17"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="17"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="17"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" s="17"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="17"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" s="17"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="17"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="17"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" s="17"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" s="17"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" s="17"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" s="17"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" s="17"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="17"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" s="17"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" s="17"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" s="17"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" s="17"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1">
       <c r="A178" s="17"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1">
       <c r="A179" s="17"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1">
       <c r="A181" s="17"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182" s="17"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1">
       <c r="A184" s="17"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1">
       <c r="A185" s="17"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1">
       <c r="A187" s="17"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1">
       <c r="A188" s="17"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1">
       <c r="A190" s="17"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1">
       <c r="A191" s="17"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193" s="17"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1">
       <c r="A194" s="17"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1">
       <c r="A196" s="17"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1">
       <c r="A197" s="17"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1">
       <c r="A199" s="17"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1">
       <c r="A200" s="17"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1">
       <c r="A202" s="17"/>
     </row>
   </sheetData>
